--- a/result/results.xlsx
+++ b/result/results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Classification Accuracy" sheetId="3" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="86">
   <si>
     <t>ChlorineConcentration</t>
   </si>
@@ -397,7 +397,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -406,9 +406,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -767,11 +764,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="458800544"/>
-        <c:axId val="459086632"/>
+        <c:axId val="237533168"/>
+        <c:axId val="237152408"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="458800544"/>
+        <c:axId val="237533168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -811,7 +808,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="459086632"/>
+        <c:crossAx val="237152408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -819,7 +816,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="459086632"/>
+        <c:axId val="237152408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -868,7 +865,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="458800544"/>
+        <c:crossAx val="237533168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -990,7 +987,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1301,11 +1297,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="459191192"/>
-        <c:axId val="459191584"/>
+        <c:axId val="238234136"/>
+        <c:axId val="238232960"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="459191192"/>
+        <c:axId val="238234136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1348,7 +1344,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="459191584"/>
+        <c:crossAx val="238232960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1356,7 +1352,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="459191584"/>
+        <c:axId val="238232960"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1408,7 +1404,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1469,7 +1464,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="459191192"/>
+        <c:crossAx val="238234136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1483,7 +1478,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1936,11 +1930,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="457801832"/>
-        <c:axId val="457800264"/>
+        <c:axId val="236446976"/>
+        <c:axId val="236447368"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="457801832"/>
+        <c:axId val="236446976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2051,12 +2045,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="457800264"/>
+        <c:crossAx val="236447368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="457800264"/>
+        <c:axId val="236447368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2170,7 +2164,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="457801832"/>
+        <c:crossAx val="236446976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2647,8 +2641,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="457802616"/>
-        <c:axId val="457800656"/>
+        <c:axId val="236445408"/>
+        <c:axId val="236444232"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3001,11 +2995,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="457801440"/>
-        <c:axId val="457801048"/>
+        <c:axId val="236445800"/>
+        <c:axId val="236446192"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="457802616"/>
+        <c:axId val="236445408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3048,7 +3042,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="457800656"/>
+        <c:crossAx val="236444232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3056,7 +3050,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="457800656"/>
+        <c:axId val="236444232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -3169,12 +3163,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="457802616"/>
+        <c:crossAx val="236445408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="457801048"/>
+        <c:axId val="236446192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3271,12 +3265,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="457801440"/>
+        <c:crossAx val="236445800"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="457801440"/>
+        <c:axId val="236445800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3286,7 +3280,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="457801048"/>
+        <c:crossAx val="236446192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3805,8 +3799,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="459481064"/>
-        <c:axId val="459484984"/>
+        <c:axId val="236444624"/>
+        <c:axId val="237420264"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4167,11 +4161,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="459483416"/>
-        <c:axId val="459485376"/>
+        <c:axId val="237417520"/>
+        <c:axId val="237419088"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="459481064"/>
+        <c:axId val="236444624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4214,7 +4208,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="459484984"/>
+        <c:crossAx val="237420264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4222,7 +4216,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="459484984"/>
+        <c:axId val="237420264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -4335,12 +4329,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="459481064"/>
+        <c:crossAx val="236444624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="459485376"/>
+        <c:axId val="237419088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4437,12 +4431,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="459483416"/>
+        <c:crossAx val="237417520"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="459483416"/>
+        <c:axId val="237417520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4452,7 +4446,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="459485376"/>
+        <c:crossAx val="237419088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4971,8 +4965,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="459487728"/>
-        <c:axId val="459483024"/>
+        <c:axId val="237415560"/>
+        <c:axId val="237419872"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5333,11 +5327,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="459486944"/>
-        <c:axId val="459485768"/>
+        <c:axId val="237415952"/>
+        <c:axId val="237416344"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="459487728"/>
+        <c:axId val="237415560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5380,7 +5374,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="459483024"/>
+        <c:crossAx val="237419872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5388,7 +5382,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="459483024"/>
+        <c:axId val="237419872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -5501,12 +5495,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="459487728"/>
+        <c:crossAx val="237415560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="459485768"/>
+        <c:axId val="237416344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5603,12 +5597,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="459486944"/>
+        <c:crossAx val="237415952"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="459486944"/>
+        <c:axId val="237415952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5618,7 +5612,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="459485768"/>
+        <c:crossAx val="237416344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6133,8 +6127,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="459488120"/>
-        <c:axId val="459480672"/>
+        <c:axId val="237421048"/>
+        <c:axId val="237416736"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6495,11 +6489,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="459482240"/>
-        <c:axId val="459481848"/>
+        <c:axId val="237422224"/>
+        <c:axId val="237421440"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="459488120"/>
+        <c:axId val="237421048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6542,7 +6536,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="459480672"/>
+        <c:crossAx val="237416736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6550,7 +6544,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="459480672"/>
+        <c:axId val="237416736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6661,12 +6655,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="459488120"/>
+        <c:crossAx val="237421048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="459481848"/>
+        <c:axId val="237421440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6763,12 +6757,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="459482240"/>
+        <c:crossAx val="237422224"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="459482240"/>
+        <c:axId val="237422224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6778,7 +6772,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="459481848"/>
+        <c:crossAx val="237421440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6906,7 +6900,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7217,11 +7210,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="459192760"/>
-        <c:axId val="459189624"/>
+        <c:axId val="237415168"/>
+        <c:axId val="238230608"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="459192760"/>
+        <c:axId val="237415168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7264,7 +7257,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="459189624"/>
+        <c:crossAx val="238230608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7272,7 +7265,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="459189624"/>
+        <c:axId val="238230608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -7324,7 +7317,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7385,7 +7377,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="459192760"/>
+        <c:crossAx val="237415168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7399,7 +7391,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7511,7 +7502,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7798,11 +7788,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="459190016"/>
-        <c:axId val="459186488"/>
+        <c:axId val="238231392"/>
+        <c:axId val="238232568"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="459190016"/>
+        <c:axId val="238231392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7845,7 +7835,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="459186488"/>
+        <c:crossAx val="238232568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7853,7 +7843,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="459186488"/>
+        <c:axId val="238232568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -7905,7 +7895,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7966,7 +7955,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="459190016"/>
+        <c:crossAx val="238231392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7980,7 +7969,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8092,7 +8080,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8379,11 +8366,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="459190800"/>
-        <c:axId val="459186880"/>
+        <c:axId val="238232176"/>
+        <c:axId val="238230216"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="459190800"/>
+        <c:axId val="238232176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8426,7 +8413,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="459186880"/>
+        <c:crossAx val="238230216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8434,7 +8421,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="459186880"/>
+        <c:axId val="238230216"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -8486,7 +8473,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -8547,7 +8533,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="459190800"/>
+        <c:crossAx val="238232176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8561,7 +8547,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -14729,10 +14714,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE15"/>
+  <dimension ref="A1:AE41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD21"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49:S62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -14751,47 +14736,22 @@
         <v>70</v>
       </c>
       <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H1" t="s">
         <v>69</v>
       </c>
-      <c r="E1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>67</v>
-      </c>
-      <c r="H1" t="s">
-        <v>74</v>
-      </c>
-      <c r="I1" t="s">
-        <v>72</v>
-      </c>
-      <c r="J1" s="8"/>
-      <c r="N1" t="s">
-        <v>71</v>
-      </c>
-      <c r="O1" t="s">
-        <v>70</v>
-      </c>
-      <c r="P1" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" t="s">
-        <v>68</v>
-      </c>
-      <c r="S1" t="s">
-        <v>67</v>
-      </c>
-      <c r="T1" t="s">
-        <v>74</v>
-      </c>
-      <c r="U1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.15">
@@ -14805,51 +14765,27 @@
         <v>0.52173913043478204</v>
       </c>
       <c r="D2" s="6">
+        <v>0.78005115089513999</v>
+      </c>
+      <c r="E2" s="6">
+        <v>0.73150000000000004</v>
+      </c>
+      <c r="F2" s="6">
+        <v>0.72570000000000001</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0.58299999999999996</v>
+      </c>
+      <c r="H2" s="6">
         <v>0.59335000000000004</v>
       </c>
-      <c r="E2" s="6">
-        <v>0.78005115089513999</v>
-      </c>
-      <c r="F2" s="6">
-        <v>0.58299999999999996</v>
-      </c>
-      <c r="G2" s="6">
+      <c r="I2" s="6">
         <v>0.51600000000000001</v>
       </c>
-      <c r="H2" s="6">
-        <v>0.73150000000000004</v>
-      </c>
-      <c r="I2" s="6">
-        <v>0.72570000000000001</v>
-      </c>
-      <c r="J2" s="5"/>
-      <c r="M2" t="s">
-        <v>12</v>
-      </c>
-      <c r="N2" s="5">
-        <v>1</v>
-      </c>
-      <c r="O2" s="5">
-        <v>7</v>
-      </c>
-      <c r="P2" s="5">
-        <v>5</v>
-      </c>
-      <c r="Q2" s="5">
-        <v>2</v>
-      </c>
-      <c r="R2" s="5">
-        <v>6</v>
-      </c>
-      <c r="S2" s="5">
-        <v>8</v>
-      </c>
-      <c r="T2" s="5">
-        <v>3</v>
-      </c>
-      <c r="U2" s="5">
-        <v>4</v>
-      </c>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
       <c r="X2" s="5"/>
       <c r="Y2" s="5"/>
       <c r="Z2" s="5"/>
@@ -14870,51 +14806,27 @@
         <v>0.86666666666666603</v>
       </c>
       <c r="D3" s="6">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="E3" s="6">
+        <v>0.63329999999999997</v>
+      </c>
+      <c r="F3" s="6">
+        <v>0.6089</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="H3" s="6">
         <v>0.56666700000000003</v>
       </c>
-      <c r="E3" s="6">
-        <v>0.83333333333333304</v>
-      </c>
-      <c r="F3" s="6">
-        <v>0.97499999999999998</v>
-      </c>
-      <c r="G3" s="6">
+      <c r="I3" s="6">
         <v>0.32400000000000001</v>
       </c>
-      <c r="H3" s="6">
-        <v>0.63329999999999997</v>
-      </c>
-      <c r="I3" s="6">
-        <v>0.6089</v>
-      </c>
-      <c r="J3" s="5"/>
-      <c r="M3" t="s">
-        <v>18</v>
-      </c>
-      <c r="N3" s="5">
-        <v>2</v>
-      </c>
-      <c r="O3" s="5">
-        <v>3</v>
-      </c>
-      <c r="P3" s="5">
-        <v>7</v>
-      </c>
-      <c r="Q3" s="5">
-        <v>4</v>
-      </c>
-      <c r="R3" s="5">
-        <v>1</v>
-      </c>
-      <c r="S3" s="5">
-        <v>8</v>
-      </c>
-      <c r="T3" s="5">
-        <v>5</v>
-      </c>
-      <c r="U3" s="5">
-        <v>6</v>
-      </c>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
       <c r="X3" s="5"/>
       <c r="Y3" s="5"/>
       <c r="Z3" s="5"/>
@@ -14935,51 +14847,27 @@
         <v>0.59244791666666596</v>
       </c>
       <c r="D4" s="6">
+        <v>0.60729166666666601</v>
+      </c>
+      <c r="E4" s="6">
+        <v>0.65780000000000005</v>
+      </c>
+      <c r="F4" s="6">
+        <v>0.67110000000000003</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0.55300000000000005</v>
+      </c>
+      <c r="H4" s="6">
         <v>0.54635400000000001</v>
       </c>
-      <c r="E4" s="6">
-        <v>0.60729166666666601</v>
-      </c>
-      <c r="F4" s="6">
-        <v>0.55300000000000005</v>
-      </c>
-      <c r="G4" s="6">
+      <c r="I4" s="6">
         <v>0.57199999999999995</v>
       </c>
-      <c r="H4" s="6">
-        <v>0.65780000000000005</v>
-      </c>
-      <c r="I4" s="6">
-        <v>0.67110000000000003</v>
-      </c>
-      <c r="J4" s="5"/>
-      <c r="M4" t="s">
-        <v>0</v>
-      </c>
-      <c r="N4" s="5">
-        <v>1</v>
-      </c>
-      <c r="O4" s="5">
-        <v>5</v>
-      </c>
-      <c r="P4" s="5">
-        <v>8</v>
-      </c>
-      <c r="Q4" s="5">
-        <v>4</v>
-      </c>
-      <c r="R4" s="5">
-        <v>7</v>
-      </c>
-      <c r="S4" s="5">
-        <v>6</v>
-      </c>
-      <c r="T4" s="5">
-        <v>2</v>
-      </c>
-      <c r="U4" s="5">
-        <v>3</v>
-      </c>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
       <c r="X4" s="5"/>
       <c r="Y4" s="5"/>
       <c r="Z4" s="5"/>
@@ -15000,51 +14888,27 @@
         <v>1</v>
       </c>
       <c r="D5" s="6">
+        <v>0.92857142857142805</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0.96430000000000005</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0.95950000000000002</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0.96099999999999997</v>
+      </c>
+      <c r="H5" s="6">
         <v>0.92857100000000004</v>
       </c>
-      <c r="E5" s="6">
-        <v>0.92857142857142805</v>
-      </c>
-      <c r="F5" s="6">
-        <v>0.96099999999999997</v>
-      </c>
-      <c r="G5" s="6">
+      <c r="I5" s="6">
         <v>0.76900000000000002</v>
       </c>
-      <c r="H5" s="6">
-        <v>0.96430000000000005</v>
-      </c>
-      <c r="I5" s="6">
-        <v>0.95950000000000002</v>
-      </c>
-      <c r="J5" s="5"/>
-      <c r="M5" t="s">
-        <v>65</v>
-      </c>
-      <c r="N5" s="5">
-        <v>3</v>
-      </c>
-      <c r="O5" s="5">
-        <v>1.5</v>
-      </c>
-      <c r="P5" s="5">
-        <v>6.5</v>
-      </c>
-      <c r="Q5" s="5">
-        <v>6.5</v>
-      </c>
-      <c r="R5" s="5">
-        <v>4</v>
-      </c>
-      <c r="S5" s="5">
-        <v>7</v>
-      </c>
-      <c r="T5" s="5">
-        <v>1.5</v>
-      </c>
-      <c r="U5" s="5">
-        <v>5</v>
-      </c>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
       <c r="X5" s="5"/>
       <c r="Y5" s="5"/>
       <c r="Z5" s="5"/>
@@ -15065,51 +14929,27 @@
         <v>0.98039215686274495</v>
       </c>
       <c r="D6" s="6">
+        <v>0.91176470588235203</v>
+      </c>
+      <c r="E6" s="6">
+        <v>0.77880000000000005</v>
+      </c>
+      <c r="F6" s="6">
+        <v>0.76919999999999999</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="H6" s="6">
         <v>0.86601300000000003</v>
       </c>
-      <c r="E6" s="6">
-        <v>0.91176470588235203</v>
-      </c>
-      <c r="F6" s="6">
-        <v>0.89600000000000002</v>
-      </c>
-      <c r="G6" s="6">
+      <c r="I6" s="6">
         <v>0.77400000000000002</v>
       </c>
-      <c r="H6" s="6">
-        <v>0.77880000000000005</v>
-      </c>
-      <c r="I6" s="6">
-        <v>0.76919999999999999</v>
-      </c>
-      <c r="J6" s="5"/>
-      <c r="M6" t="s">
-        <v>13</v>
-      </c>
-      <c r="N6" s="5">
-        <v>3</v>
-      </c>
-      <c r="O6" s="5">
-        <v>1</v>
-      </c>
-      <c r="P6" s="5">
-        <v>6</v>
-      </c>
-      <c r="Q6" s="5">
-        <v>4</v>
-      </c>
-      <c r="R6" s="5">
-        <v>5</v>
-      </c>
-      <c r="S6" s="5">
-        <v>7</v>
-      </c>
-      <c r="T6" s="5">
-        <v>2</v>
-      </c>
-      <c r="U6" s="5">
-        <v>8</v>
-      </c>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
       <c r="X6" s="5"/>
       <c r="Y6" s="5"/>
       <c r="Z6" s="5"/>
@@ -15121,60 +14961,36 @@
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B7" s="6">
-        <v>0.85227272700000001</v>
+        <v>0.94752186599999999</v>
       </c>
       <c r="C7" s="6">
-        <v>0.96590909090909005</v>
+        <v>0.96015549076773499</v>
       </c>
       <c r="D7" s="6">
-        <v>0.90909099999999998</v>
+        <v>0.92614188532555797</v>
       </c>
       <c r="E7" s="6">
-        <v>0.90909090909090895</v>
+        <v>0.94359999999999999</v>
       </c>
       <c r="F7" s="6">
-        <v>0.82</v>
+        <v>0.95120000000000005</v>
       </c>
       <c r="G7" s="6">
-        <v>0.74199999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="H7" s="6">
-        <v>0.90910000000000002</v>
+        <v>0.91739599999999999</v>
       </c>
       <c r="I7" s="6">
-        <v>0.90910000000000002</v>
-      </c>
-      <c r="J7" s="5"/>
-      <c r="M7" t="s">
-        <v>9</v>
-      </c>
-      <c r="N7" s="5">
-        <v>6</v>
-      </c>
-      <c r="O7" s="5">
-        <v>2</v>
-      </c>
-      <c r="P7" s="5">
-        <v>4</v>
-      </c>
-      <c r="Q7" s="5">
-        <v>4</v>
-      </c>
-      <c r="R7" s="5">
-        <v>7</v>
-      </c>
-      <c r="S7" s="5">
-        <v>8</v>
-      </c>
-      <c r="T7" s="5">
-        <v>1</v>
-      </c>
-      <c r="U7" s="5">
-        <v>4</v>
-      </c>
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
       <c r="X7" s="5"/>
       <c r="Y7" s="5"/>
       <c r="Z7" s="5"/>
@@ -15186,59 +15002,36 @@
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="B8" s="6">
-        <v>0.94752186599999999</v>
+        <v>0.72602739699999996</v>
       </c>
       <c r="C8" s="6">
-        <v>0.96015549076773499</v>
+        <v>0.79452054794520499</v>
       </c>
       <c r="D8" s="6">
-        <v>0.91739599999999999</v>
+        <v>0.73972602739726001</v>
       </c>
       <c r="E8" s="6">
-        <v>0.92614188532555797</v>
+        <v>0.72599999999999998</v>
       </c>
       <c r="F8" s="6">
-        <v>0.92</v>
+        <v>0.69499999999999995</v>
       </c>
       <c r="G8" s="6">
-        <v>0.92400000000000004</v>
+        <v>0.65200000000000002</v>
       </c>
       <c r="H8" s="6">
-        <v>0.94359999999999999</v>
+        <v>0.64383599999999996</v>
       </c>
       <c r="I8" s="6">
-        <v>0.95120000000000005</v>
-      </c>
-      <c r="M8" t="s">
-        <v>2</v>
-      </c>
-      <c r="N8" s="5">
-        <v>3</v>
-      </c>
-      <c r="O8" s="5">
-        <v>2</v>
-      </c>
-      <c r="P8" s="5">
-        <v>8</v>
-      </c>
-      <c r="Q8" s="5">
-        <v>5</v>
-      </c>
-      <c r="R8" s="5">
-        <v>7</v>
-      </c>
-      <c r="S8" s="5">
-        <v>6</v>
-      </c>
-      <c r="T8" s="5">
-        <v>4</v>
-      </c>
-      <c r="U8" s="5">
-        <v>2</v>
-      </c>
+        <v>0.63500000000000001</v>
+      </c>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
       <c r="X8" s="5"/>
       <c r="Y8" s="5"/>
       <c r="Z8" s="5"/>
@@ -15250,59 +15043,36 @@
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B9" s="6">
-        <v>0.72602739699999996</v>
+        <v>0.66973684200000005</v>
       </c>
       <c r="C9" s="6">
-        <v>0.79452054794520499</v>
+        <v>0.66447368421052599</v>
       </c>
       <c r="D9" s="6">
-        <v>0.64383599999999996</v>
+        <v>0.72105263157894695</v>
       </c>
       <c r="E9" s="6">
-        <v>0.73972602739726001</v>
+        <v>0.69740000000000002</v>
       </c>
       <c r="F9" s="6">
-        <v>0.65200000000000002</v>
+        <v>0.6855</v>
       </c>
       <c r="G9" s="6">
-        <v>0.63500000000000001</v>
+        <v>0.67600000000000005</v>
       </c>
       <c r="H9" s="6">
-        <v>0.72599999999999998</v>
+        <v>0.62368400000000002</v>
       </c>
       <c r="I9" s="6">
-        <v>0.69499999999999995</v>
-      </c>
-      <c r="M9" t="s">
-        <v>15</v>
-      </c>
-      <c r="N9" s="5">
-        <v>3</v>
-      </c>
-      <c r="O9" s="5">
-        <v>1</v>
-      </c>
-      <c r="P9" s="5">
-        <v>7</v>
-      </c>
-      <c r="Q9" s="5">
-        <v>2</v>
-      </c>
-      <c r="R9" s="5">
-        <v>6</v>
-      </c>
-      <c r="S9" s="5">
-        <v>8</v>
-      </c>
-      <c r="T9" s="5">
-        <v>4</v>
-      </c>
-      <c r="U9" s="5">
-        <v>5</v>
-      </c>
+        <v>0.52900000000000003</v>
+      </c>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
       <c r="X9" s="5"/>
       <c r="Y9" s="5"/>
       <c r="Z9" s="5"/>
@@ -15314,59 +15084,36 @@
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B10" s="6">
-        <v>0.66973684200000005</v>
+        <v>0.89696485599999998</v>
       </c>
       <c r="C10" s="6">
-        <v>0.66447368421052599</v>
+        <v>0.88338658146964799</v>
       </c>
       <c r="D10" s="6">
-        <v>0.62368400000000002</v>
+        <v>0.899361022364217</v>
       </c>
       <c r="E10" s="6">
-        <v>0.72105263157894695</v>
+        <v>0.95209999999999995</v>
       </c>
       <c r="F10" s="6">
-        <v>0.67600000000000005</v>
+        <v>0.85409999999999997</v>
       </c>
       <c r="G10" s="6">
-        <v>0.52900000000000003</v>
+        <v>0.78300000000000003</v>
       </c>
       <c r="H10" s="6">
-        <v>0.69740000000000002</v>
+        <v>0.77715699999999999</v>
       </c>
       <c r="I10" s="6">
-        <v>0.6855</v>
-      </c>
-      <c r="M10" t="s">
-        <v>10</v>
-      </c>
-      <c r="N10" s="5">
-        <v>5</v>
-      </c>
-      <c r="O10" s="5">
-        <v>6</v>
-      </c>
-      <c r="P10" s="5">
-        <v>7</v>
-      </c>
-      <c r="Q10" s="5">
-        <v>2</v>
-      </c>
-      <c r="R10" s="5">
-        <v>4</v>
-      </c>
-      <c r="S10" s="5">
-        <v>8</v>
-      </c>
-      <c r="T10" s="5">
-        <v>1</v>
-      </c>
-      <c r="U10" s="5">
-        <v>3</v>
-      </c>
+        <v>0.81499999999999995</v>
+      </c>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
       <c r="X10" s="5"/>
       <c r="Y10" s="5"/>
       <c r="Z10" s="5"/>
@@ -15378,59 +15125,36 @@
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="B11" s="6">
-        <v>0.89696485599999998</v>
+        <v>0.88241206000000005</v>
       </c>
       <c r="C11" s="6">
-        <v>0.88338658146964799</v>
+        <v>0.93165829145728596</v>
       </c>
       <c r="D11" s="6">
-        <v>0.77715699999999999</v>
+        <v>0.89547738693467305</v>
       </c>
       <c r="E11" s="6">
-        <v>0.899361022364217</v>
+        <v>0.75470000000000004</v>
       </c>
       <c r="F11" s="6">
-        <v>0.78300000000000003</v>
+        <v>0.86350000000000005</v>
       </c>
       <c r="G11" s="6">
-        <v>0.81499999999999995</v>
+        <v>0.86499999999999999</v>
       </c>
       <c r="H11" s="6">
-        <v>0.95209999999999995</v>
+        <v>0.93366800000000005</v>
       </c>
       <c r="I11" s="6">
-        <v>0.85409999999999997</v>
-      </c>
-      <c r="M11" t="s">
-        <v>4</v>
-      </c>
-      <c r="N11" s="5">
-        <v>2</v>
-      </c>
-      <c r="O11" s="5">
-        <v>3</v>
-      </c>
-      <c r="P11" s="5">
-        <v>7</v>
-      </c>
-      <c r="Q11" s="5">
-        <v>8</v>
-      </c>
-      <c r="R11" s="5">
-        <v>6</v>
-      </c>
-      <c r="S11" s="5">
-        <v>5</v>
-      </c>
-      <c r="T11" s="5">
-        <v>1</v>
-      </c>
-      <c r="U11" s="5">
-        <v>4</v>
-      </c>
+        <v>0.79500000000000004</v>
+      </c>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
       <c r="X11" s="5"/>
       <c r="Y11" s="5"/>
       <c r="Z11" s="5"/>
@@ -15442,60 +15166,36 @@
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>3</v>
       </c>
       <c r="B12" s="6">
-        <v>0.88241206000000005</v>
+        <v>1</v>
       </c>
       <c r="C12" s="6">
-        <v>0.93165829145728596</v>
+        <v>1</v>
       </c>
       <c r="D12" s="6">
-        <v>0.93366800000000005</v>
+        <v>1</v>
       </c>
       <c r="E12" s="6">
-        <v>0.89547738693467305</v>
+        <v>1</v>
       </c>
       <c r="F12" s="6">
-        <v>0.86499999999999999</v>
+        <v>0.99970000000000003</v>
       </c>
       <c r="G12" s="6">
-        <v>0.79500000000000004</v>
+        <v>0.96499999999999997</v>
       </c>
       <c r="H12" s="6">
-        <v>0.75470000000000004</v>
+        <v>1</v>
       </c>
       <c r="I12" s="6">
-        <v>0.86350000000000005</v>
-      </c>
-      <c r="J12" s="5"/>
-      <c r="M12" t="s">
-        <v>48</v>
-      </c>
-      <c r="N12" s="5">
-        <v>5</v>
-      </c>
-      <c r="O12" s="5">
-        <v>3</v>
-      </c>
-      <c r="P12" s="5">
-        <v>2</v>
-      </c>
-      <c r="Q12" s="5">
-        <v>4</v>
-      </c>
-      <c r="R12" s="5">
-        <v>6</v>
-      </c>
-      <c r="S12" s="5">
-        <v>8</v>
-      </c>
-      <c r="T12" s="5">
-        <v>1</v>
-      </c>
-      <c r="U12" s="5">
-        <v>7</v>
-      </c>
+        <v>0.93400000000000005</v>
+      </c>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
       <c r="X12" s="5"/>
       <c r="Y12" s="5"/>
       <c r="Z12" s="5"/>
@@ -15507,60 +15207,36 @@
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B13" s="6">
-        <v>1</v>
+        <v>0.99736611100000006</v>
       </c>
       <c r="C13" s="6">
-        <v>1</v>
+        <v>0.99648814749780501</v>
       </c>
       <c r="D13" s="6">
-        <v>1</v>
+        <v>0.97190517998243997</v>
       </c>
       <c r="E13" s="6">
-        <v>1</v>
+        <v>0.99119999999999997</v>
       </c>
       <c r="F13" s="6">
-        <v>0.96499999999999997</v>
+        <v>0.95779999999999998</v>
       </c>
       <c r="G13" s="6">
-        <v>0.93400000000000005</v>
+        <v>0.86699999999999999</v>
       </c>
       <c r="H13" s="6">
-        <v>1</v>
+        <v>0.92449499999999996</v>
       </c>
       <c r="I13" s="6">
-        <v>0.99970000000000003</v>
-      </c>
-      <c r="J13" s="6"/>
-      <c r="M13" t="s">
-        <v>3</v>
-      </c>
-      <c r="N13" s="5">
-        <v>3.5</v>
-      </c>
-      <c r="O13" s="5">
-        <v>3.5</v>
-      </c>
-      <c r="P13" s="5">
-        <v>3.5</v>
-      </c>
-      <c r="Q13" s="5">
-        <v>3.5</v>
-      </c>
-      <c r="R13" s="5">
-        <v>7</v>
-      </c>
-      <c r="S13" s="5">
-        <v>8</v>
-      </c>
-      <c r="T13" s="5">
-        <v>3.5</v>
-      </c>
-      <c r="U13" s="5">
-        <v>3.5</v>
-      </c>
+        <v>0.91400000000000003</v>
+      </c>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
       <c r="X13" s="5"/>
       <c r="Y13" s="5"/>
       <c r="Z13" s="5"/>
@@ -15571,143 +15247,592 @@
       <c r="AE13" s="5"/>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
+      <c r="B14" s="7">
+        <f t="shared" ref="B14:I14" si="0">AVERAGE(B2:B13)</f>
+        <v>0.86595831050000005</v>
+      </c>
+      <c r="C14" s="7">
+        <f t="shared" si="0"/>
+        <v>0.84932738449825529</v>
+      </c>
+      <c r="D14" s="7">
+        <f t="shared" si="0"/>
+        <v>0.85122303491100115</v>
+      </c>
+      <c r="E14" s="7">
+        <f t="shared" si="0"/>
+        <v>0.81922499999999998</v>
+      </c>
+      <c r="F14" s="7">
+        <f t="shared" si="0"/>
+        <v>0.81176666666666686</v>
+      </c>
+      <c r="G14" s="7">
+        <f t="shared" si="0"/>
+        <v>0.80800000000000016</v>
+      </c>
+      <c r="H14" s="7">
+        <f t="shared" si="0"/>
+        <v>0.77676591666666672</v>
+      </c>
+      <c r="I14" s="7">
+        <f t="shared" si="0"/>
+        <v>0.70841666666666681</v>
+      </c>
+      <c r="R14" s="14"/>
+      <c r="S14" s="14"/>
+      <c r="T14" s="14"/>
+      <c r="U14" s="14"/>
+      <c r="X14" s="14"/>
+      <c r="Y14" s="14"/>
+      <c r="Z14" s="14"/>
+      <c r="AA14" s="14"/>
+      <c r="AB14" s="14"/>
+      <c r="AC14" s="14"/>
+      <c r="AD14" s="14"/>
+      <c r="AE14" s="14"/>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="5"/>
+      <c r="S25" s="5"/>
+      <c r="T25" s="5"/>
+      <c r="U25" s="5"/>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="5"/>
+      <c r="S26" s="5"/>
+      <c r="T26" s="5"/>
+      <c r="U26" s="5"/>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="5"/>
+      <c r="R27" s="5"/>
+      <c r="S27" s="5"/>
+      <c r="T27" s="5"/>
+      <c r="U27" s="5"/>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="B28" t="s">
+        <v>71</v>
+      </c>
+      <c r="C28" t="s">
+        <v>70</v>
+      </c>
+      <c r="D28" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28" t="s">
+        <v>74</v>
+      </c>
+      <c r="F28" t="s">
+        <v>72</v>
+      </c>
+      <c r="G28" t="s">
+        <v>68</v>
+      </c>
+      <c r="H28" t="s">
+        <v>69</v>
+      </c>
+      <c r="I28" t="s">
+        <v>67</v>
+      </c>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="5"/>
+      <c r="S28" s="5"/>
+      <c r="T28" s="5"/>
+      <c r="U28" s="5"/>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" s="5">
+        <v>1</v>
+      </c>
+      <c r="C29" s="5">
+        <v>7</v>
+      </c>
+      <c r="D29" s="5">
+        <v>2</v>
+      </c>
+      <c r="E29" s="5">
+        <v>3</v>
+      </c>
+      <c r="F29" s="5">
+        <v>4</v>
+      </c>
+      <c r="G29" s="5">
         <v>6</v>
       </c>
-      <c r="B14" s="6">
-        <v>0.99736611100000006</v>
-      </c>
-      <c r="C14" s="6">
-        <v>0.99648814749780501</v>
-      </c>
-      <c r="D14" s="6">
-        <v>0.92449499999999996</v>
-      </c>
-      <c r="E14" s="6">
-        <v>0.97190517998243997</v>
-      </c>
-      <c r="F14" s="6">
-        <v>0.86699999999999999</v>
-      </c>
-      <c r="G14" s="6">
-        <v>0.91400000000000003</v>
-      </c>
-      <c r="H14" s="6">
-        <v>0.99119999999999997</v>
-      </c>
-      <c r="I14" s="6">
-        <v>0.95779999999999998</v>
-      </c>
-      <c r="J14" s="5"/>
-      <c r="M14" t="s">
+      <c r="H29" s="5">
+        <v>5</v>
+      </c>
+      <c r="I29" s="5">
+        <v>8</v>
+      </c>
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="5"/>
+      <c r="R29" s="5"/>
+      <c r="S29" s="5"/>
+      <c r="T29" s="5"/>
+      <c r="U29" s="5"/>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>18</v>
+      </c>
+      <c r="B30" s="5">
+        <v>2</v>
+      </c>
+      <c r="C30" s="5">
+        <v>3</v>
+      </c>
+      <c r="D30" s="5">
+        <v>4</v>
+      </c>
+      <c r="E30" s="5">
+        <v>5</v>
+      </c>
+      <c r="F30" s="5">
         <v>6</v>
       </c>
-      <c r="N14" s="5">
+      <c r="G30" s="5">
+        <v>1</v>
+      </c>
+      <c r="H30" s="5">
+        <v>7</v>
+      </c>
+      <c r="I30" s="5">
+        <v>8</v>
+      </c>
+      <c r="N30" s="5"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="5"/>
+      <c r="R30" s="5"/>
+      <c r="S30" s="5"/>
+      <c r="T30" s="5"/>
+      <c r="U30" s="5"/>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" s="5">
+        <v>1</v>
+      </c>
+      <c r="C31" s="5">
+        <v>5</v>
+      </c>
+      <c r="D31" s="5">
+        <v>4</v>
+      </c>
+      <c r="E31" s="5">
+        <v>3</v>
+      </c>
+      <c r="F31" s="5">
         <v>2</v>
       </c>
-      <c r="O14" s="5">
+      <c r="G31" s="5">
+        <v>7</v>
+      </c>
+      <c r="H31" s="5">
+        <v>8</v>
+      </c>
+      <c r="I31" s="5">
+        <v>6</v>
+      </c>
+      <c r="N31" s="5"/>
+      <c r="O31" s="5"/>
+      <c r="P31" s="5"/>
+      <c r="Q31" s="5"/>
+      <c r="R31" s="5"/>
+      <c r="S31" s="5"/>
+      <c r="T31" s="5"/>
+      <c r="U31" s="5"/>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>65</v>
+      </c>
+      <c r="B32" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="C32" s="5">
+        <v>1</v>
+      </c>
+      <c r="D32" s="5">
+        <v>6.5</v>
+      </c>
+      <c r="E32" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="F32" s="5">
+        <v>5</v>
+      </c>
+      <c r="G32" s="5">
+        <v>4</v>
+      </c>
+      <c r="H32" s="5">
+        <v>6.5</v>
+      </c>
+      <c r="I32" s="5">
+        <v>8</v>
+      </c>
+      <c r="N32" s="5"/>
+      <c r="O32" s="5"/>
+      <c r="P32" s="5"/>
+      <c r="Q32" s="5"/>
+      <c r="R32" s="5"/>
+      <c r="S32" s="5"/>
+      <c r="T32" s="5"/>
+      <c r="U32" s="5"/>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33" s="5">
         <v>3</v>
       </c>
-      <c r="P14" s="5">
+      <c r="C33" s="5">
+        <v>1</v>
+      </c>
+      <c r="D33" s="5">
+        <v>3</v>
+      </c>
+      <c r="E33" s="5">
         <v>6</v>
       </c>
-      <c r="Q14" s="5">
+      <c r="F33" s="5">
+        <v>8</v>
+      </c>
+      <c r="G33" s="5">
         <v>4</v>
       </c>
-      <c r="R14" s="5">
+      <c r="H33" s="5">
+        <v>5</v>
+      </c>
+      <c r="I33" s="5">
+        <v>7</v>
+      </c>
+      <c r="N33" s="5"/>
+      <c r="O33" s="5"/>
+      <c r="P33" s="5"/>
+      <c r="Q33" s="5"/>
+      <c r="R33" s="5"/>
+      <c r="S33" s="5"/>
+      <c r="T33" s="5"/>
+      <c r="U33" s="5"/>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
+        <v>2</v>
+      </c>
+      <c r="B34" s="5">
+        <v>3</v>
+      </c>
+      <c r="C34" s="5">
+        <v>1</v>
+      </c>
+      <c r="D34" s="5">
+        <v>5</v>
+      </c>
+      <c r="E34" s="5">
+        <v>4</v>
+      </c>
+      <c r="F34" s="5">
+        <v>2</v>
+      </c>
+      <c r="G34" s="5">
+        <v>7</v>
+      </c>
+      <c r="H34" s="5">
         <v>8</v>
       </c>
-      <c r="S14" s="5">
+      <c r="I34" s="5">
+        <v>6</v>
+      </c>
+      <c r="N34" s="5"/>
+      <c r="O34" s="5"/>
+      <c r="P34" s="5"/>
+      <c r="Q34" s="5"/>
+      <c r="R34" s="5"/>
+      <c r="S34" s="5"/>
+      <c r="T34" s="5"/>
+      <c r="U34" s="5"/>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
+        <v>15</v>
+      </c>
+      <c r="B35" s="5">
+        <v>3.5</v>
+      </c>
+      <c r="C35" s="5">
+        <v>1</v>
+      </c>
+      <c r="D35" s="5">
+        <v>2</v>
+      </c>
+      <c r="E35" s="5">
+        <v>3.5</v>
+      </c>
+      <c r="F35" s="5">
+        <v>5</v>
+      </c>
+      <c r="G35" s="5">
+        <v>6</v>
+      </c>
+      <c r="H35" s="5">
         <v>7</v>
       </c>
-      <c r="T14" s="5">
+      <c r="I35" s="5">
+        <v>8</v>
+      </c>
+      <c r="N35" s="5"/>
+      <c r="O35" s="5"/>
+      <c r="P35" s="5"/>
+      <c r="Q35" s="5"/>
+      <c r="R35" s="5"/>
+      <c r="S35" s="5"/>
+      <c r="T35" s="5"/>
+      <c r="U35" s="5"/>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" s="5">
+        <v>5</v>
+      </c>
+      <c r="C36" s="5">
+        <v>6</v>
+      </c>
+      <c r="D36" s="5">
         <v>1</v>
       </c>
-      <c r="U14" s="5">
+      <c r="E36" s="5">
+        <v>2</v>
+      </c>
+      <c r="F36" s="5">
+        <v>3</v>
+      </c>
+      <c r="G36" s="5">
+        <v>4</v>
+      </c>
+      <c r="H36" s="5">
+        <v>7</v>
+      </c>
+      <c r="I36" s="5">
+        <v>8</v>
+      </c>
+      <c r="N36" s="5"/>
+      <c r="O36" s="5"/>
+      <c r="P36" s="5"/>
+      <c r="Q36" s="5"/>
+      <c r="R36" s="5"/>
+      <c r="S36" s="5"/>
+      <c r="T36" s="5"/>
+      <c r="U36" s="5"/>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" s="5">
+        <v>3</v>
+      </c>
+      <c r="C37" s="5">
+        <v>4</v>
+      </c>
+      <c r="D37" s="5">
+        <v>2</v>
+      </c>
+      <c r="E37" s="5">
+        <v>1</v>
+      </c>
+      <c r="F37" s="5">
         <v>5</v>
       </c>
-      <c r="X14" s="5"/>
-      <c r="Y14" s="5"/>
-      <c r="Z14" s="5"/>
-      <c r="AA14" s="5"/>
-      <c r="AB14" s="5"/>
-      <c r="AC14" s="5"/>
-      <c r="AD14" s="5"/>
-      <c r="AE14" s="5"/>
+      <c r="G37" s="5">
+        <v>8</v>
+      </c>
+      <c r="H37" s="5">
+        <v>7</v>
+      </c>
+      <c r="I37" s="5">
+        <v>6</v>
+      </c>
+      <c r="N37" s="14"/>
+      <c r="O37" s="14"/>
+      <c r="P37" s="14"/>
+      <c r="Q37" s="14"/>
+      <c r="R37" s="14"/>
+      <c r="S37" s="14"/>
+      <c r="T37" s="14"/>
+      <c r="U37" s="14"/>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="B15" s="7">
-        <f t="shared" ref="B15:I15" si="0">AVERAGE(B2:B14)</f>
-        <v>0.86490557330769235</v>
-      </c>
-      <c r="C15" s="7">
-        <f t="shared" si="0"/>
-        <v>0.85829520806831949</v>
-      </c>
-      <c r="D15" s="7">
-        <f t="shared" si="0"/>
-        <v>0.78694476923076928</v>
-      </c>
-      <c r="E15" s="7">
-        <f t="shared" si="0"/>
-        <v>0.85567440984791709</v>
-      </c>
-      <c r="F15" s="7">
-        <f t="shared" si="0"/>
-        <v>0.80892307692307674</v>
-      </c>
-      <c r="G15" s="7">
-        <f t="shared" si="0"/>
-        <v>0.71099999999999985</v>
-      </c>
-      <c r="H15" s="7">
-        <f t="shared" si="0"/>
-        <v>0.82613846153846149</v>
-      </c>
-      <c r="I15" s="7">
-        <f t="shared" si="0"/>
-        <v>0.81925384615384622</v>
-      </c>
-      <c r="N15" s="15">
-        <f t="shared" ref="N15:U15" si="1">AVERAGE(N2:N14)</f>
-        <v>3.0384615384615383</v>
-      </c>
-      <c r="O15" s="15">
-        <f t="shared" si="1"/>
-        <v>3.1538461538461537</v>
-      </c>
-      <c r="P15" s="15">
-        <f t="shared" si="1"/>
-        <v>5.9230769230769234</v>
-      </c>
-      <c r="Q15" s="15">
-        <f t="shared" si="1"/>
-        <v>4.0769230769230766</v>
-      </c>
-      <c r="R15" s="15">
-        <f t="shared" si="1"/>
-        <v>5.6923076923076925</v>
-      </c>
-      <c r="S15" s="15">
-        <f t="shared" si="1"/>
-        <v>7.2307692307692308</v>
-      </c>
-      <c r="T15" s="15">
-        <f t="shared" si="1"/>
-        <v>2.3076923076923075</v>
-      </c>
-      <c r="U15" s="15">
-        <f t="shared" si="1"/>
-        <v>4.5769230769230766</v>
-      </c>
-      <c r="X15" s="15"/>
-      <c r="Y15" s="15"/>
-      <c r="Z15" s="15"/>
-      <c r="AA15" s="15"/>
-      <c r="AB15" s="15"/>
-      <c r="AC15" s="15"/>
-      <c r="AD15" s="15"/>
-      <c r="AE15" s="15"/>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
+        <v>48</v>
+      </c>
+      <c r="B38" s="5">
+        <v>4</v>
+      </c>
+      <c r="C38" s="5">
+        <v>2</v>
+      </c>
+      <c r="D38" s="5">
+        <v>3</v>
+      </c>
+      <c r="E38" s="5">
+        <v>8</v>
+      </c>
+      <c r="F38" s="5">
+        <v>6</v>
+      </c>
+      <c r="G38" s="5">
+        <v>5</v>
+      </c>
+      <c r="H38" s="5">
+        <v>1</v>
+      </c>
+      <c r="I38" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A39" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" s="5">
+        <v>3.5</v>
+      </c>
+      <c r="C39" s="5">
+        <v>3.5</v>
+      </c>
+      <c r="D39" s="5">
+        <v>3.5</v>
+      </c>
+      <c r="E39" s="5">
+        <v>3.5</v>
+      </c>
+      <c r="F39" s="5">
+        <v>3.5</v>
+      </c>
+      <c r="G39" s="5">
+        <v>7</v>
+      </c>
+      <c r="H39" s="5">
+        <v>3.5</v>
+      </c>
+      <c r="I39" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A40" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40" s="5">
+        <v>1</v>
+      </c>
+      <c r="C40" s="5">
+        <v>2</v>
+      </c>
+      <c r="D40" s="5">
+        <v>4</v>
+      </c>
+      <c r="E40" s="5">
+        <v>3</v>
+      </c>
+      <c r="F40" s="5">
+        <v>5</v>
+      </c>
+      <c r="G40" s="5">
+        <v>8</v>
+      </c>
+      <c r="H40" s="5">
+        <v>6</v>
+      </c>
+      <c r="I40" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="B41" s="14">
+        <f t="shared" ref="B41" si="1">AVERAGE(B29:B40)</f>
+        <v>2.7083333333333335</v>
+      </c>
+      <c r="C41" s="14">
+        <f t="shared" ref="C41" si="2">AVERAGE(C29:C40)</f>
+        <v>3.0416666666666665</v>
+      </c>
+      <c r="D41" s="14">
+        <f t="shared" ref="D41" si="3">AVERAGE(D29:D40)</f>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="E41" s="14">
+        <f t="shared" ref="E41" si="4">AVERAGE(E29:E40)</f>
+        <v>3.7083333333333335</v>
+      </c>
+      <c r="F41" s="14">
+        <f t="shared" ref="F41" si="5">AVERAGE(F29:F40)</f>
+        <v>4.541666666666667</v>
+      </c>
+      <c r="G41" s="14">
+        <f t="shared" ref="G41" si="6">AVERAGE(G29:G40)</f>
+        <v>5.583333333333333</v>
+      </c>
+      <c r="H41" s="14">
+        <f t="shared" ref="H41" si="7">AVERAGE(H29:H40)</f>
+        <v>5.916666666666667</v>
+      </c>
+      <c r="I41" s="14">
+        <f t="shared" ref="I41" si="8">AVERAGE(I29:I40)</f>
+        <v>7.25</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -15775,7 +15900,7 @@
         <f>C2/B2</f>
         <v>11.793993860700079</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="12" t="s">
         <v>0</v>
       </c>
       <c r="I2" s="2">
@@ -15787,7 +15912,7 @@
       <c r="K2" s="2">
         <v>175.518595621</v>
       </c>
-      <c r="L2" s="14">
+      <c r="L2" s="13">
         <v>21921.630606364</v>
       </c>
       <c r="M2">
@@ -15810,7 +15935,7 @@
         <f t="shared" ref="D3:D17" si="0">C3/B3</f>
         <v>10.450160734199779</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="12" t="s">
         <v>1</v>
       </c>
       <c r="I3" s="2">
@@ -15822,7 +15947,7 @@
       <c r="K3" s="2">
         <v>6.7976156899999998</v>
       </c>
-      <c r="L3" s="14">
+      <c r="L3" s="13">
         <v>548.46357154500004</v>
       </c>
       <c r="M3">
@@ -15843,7 +15968,7 @@
         <f t="shared" si="0"/>
         <v>57.017475115930161</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="12" t="s">
         <v>13</v>
       </c>
       <c r="I4" s="2">
@@ -15855,7 +15980,7 @@
       <c r="K4" s="2">
         <v>8.2949916179999992</v>
       </c>
-      <c r="L4" s="14">
+      <c r="L4" s="13">
         <v>332.62832197099999</v>
       </c>
       <c r="M4">
@@ -15876,7 +16001,7 @@
         <f t="shared" si="0"/>
         <v>50.395836451742738</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="H5" s="12" t="s">
         <v>80</v>
       </c>
       <c r="I5" s="2">
@@ -15909,25 +16034,25 @@
         <f t="shared" si="0"/>
         <v>29.847835000483233</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="H6" s="12" t="s">
         <v>4</v>
       </c>
       <c r="I6" s="2">
         <v>1.2013921E-2</v>
       </c>
-      <c r="J6" s="14">
+      <c r="J6" s="13">
         <v>1.86</v>
       </c>
       <c r="K6" s="2">
         <v>0.31890855000000001</v>
       </c>
-      <c r="L6" s="14">
+      <c r="L6" s="13">
         <v>2.0653435729999998</v>
       </c>
       <c r="M6">
         <v>23.539295558999999</v>
       </c>
-      <c r="O6" s="14"/>
+      <c r="O6" s="13"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
@@ -15982,13 +16107,13 @@
       <c r="I8" s="2">
         <v>17.861827659999999</v>
       </c>
-      <c r="J8" s="14">
+      <c r="J8" s="13">
         <v>80.13</v>
       </c>
       <c r="K8" s="2">
         <v>55.467774829</v>
       </c>
-      <c r="L8" s="14">
+      <c r="L8" s="13">
         <v>6902.0390906000002</v>
       </c>
       <c r="M8">
@@ -16187,7 +16312,7 @@
       <c r="C2">
         <v>0.76700000000000002</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="9">
         <f>B2-C2</f>
         <v>1.5608695652173932E-2</v>
       </c>
@@ -16202,7 +16327,7 @@
       <c r="C3">
         <v>0.86699999999999999</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="9">
         <f t="shared" ref="D3:D14" si="0">B3-C3</f>
         <v>-6.6999999999999948E-2</v>
       </c>
@@ -16217,7 +16342,7 @@
       <c r="C4" s="6">
         <v>0.68600000000000005</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="9">
         <f t="shared" si="0"/>
         <v>2.8583333333332961E-2</v>
       </c>
@@ -16232,7 +16357,7 @@
       <c r="C5" s="6">
         <v>1</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -16247,7 +16372,7 @@
       <c r="C6" s="6">
         <v>0.91800000000000004</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="9">
         <f t="shared" si="0"/>
         <v>6.8366013071889942E-3</v>
       </c>
@@ -16262,7 +16387,7 @@
       <c r="C7" s="6">
         <v>0.90900000000000003</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="9">
         <f t="shared" si="0"/>
         <v>3.418181818181798E-2</v>
       </c>
@@ -16277,7 +16402,7 @@
       <c r="C8" s="6">
         <v>0.96399999999999997</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="9">
         <f t="shared" si="0"/>
         <v>-4.8163265306129244E-3</v>
       </c>
@@ -16292,7 +16417,7 @@
       <c r="C9" s="6">
         <v>0.753</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="9">
         <f t="shared" si="0"/>
         <v>2.7821917808218966E-2</v>
       </c>
@@ -16307,7 +16432,7 @@
       <c r="C10" s="6">
         <v>0.74199999999999999</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="9">
         <f t="shared" si="0"/>
         <v>3.1684210526314982E-2</v>
       </c>
@@ -16322,7 +16447,7 @@
       <c r="C11" s="6">
         <v>0.91500000000000004</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="9">
         <f t="shared" si="0"/>
         <v>-3.6581469648570009E-3</v>
       </c>
@@ -16337,7 +16462,7 @@
       <c r="C12" s="6">
         <v>0.95399999999999996</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="9">
         <f t="shared" si="0"/>
         <v>4.7939698492460714E-3</v>
       </c>
@@ -16352,7 +16477,7 @@
       <c r="C13" s="6">
         <v>0.99</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="9">
         <f t="shared" si="0"/>
         <v>1.0000000000000009E-2</v>
       </c>
@@ -16367,15 +16492,15 @@
       <c r="C14" s="6">
         <v>0.98499999999999999</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="9">
         <f t="shared" si="0"/>
         <v>-1.8362598770852001E-2</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -18345,7 +18470,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="G34" sqref="G34:L34"/>
     </sheetView>
   </sheetViews>
@@ -18360,37 +18485,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="H1" s="18" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="H1" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="P1" s="18" t="s">
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="P1" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
-      <c r="W1" s="18"/>
-      <c r="X1" s="18"/>
-      <c r="Y1" s="18"/>
-      <c r="Z1" s="18"/>
-      <c r="AA1" s="18"/>
-      <c r="AE1" s="18"/>
-      <c r="AF1" s="18"/>
-      <c r="AG1" s="18"/>
-      <c r="AH1" s="18"/>
-      <c r="AI1" s="18"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
+      <c r="W1" s="17"/>
+      <c r="X1" s="17"/>
+      <c r="Y1" s="17"/>
+      <c r="Z1" s="17"/>
+      <c r="AA1" s="17"/>
+      <c r="AE1" s="17"/>
+      <c r="AF1" s="17"/>
+      <c r="AG1" s="17"/>
+      <c r="AH1" s="17"/>
+      <c r="AI1" s="17"/>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
@@ -18430,303 +18555,303 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:35" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="13" t="s">
+    <row r="3" spans="1:35" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="2">
         <v>3.0783298499999998</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="13">
         <v>115.52703496399999</v>
       </c>
-      <c r="D3" s="14">
+      <c r="D3" s="13">
         <v>373.39263617699999</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3" s="13">
         <v>21921.630606364</v>
       </c>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13" t="s">
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12" t="s">
         <v>0</v>
       </c>
       <c r="I3" s="2">
         <v>3.0783298499999998</v>
       </c>
-      <c r="J3" s="14">
+      <c r="J3" s="13">
         <v>115.52703496399999</v>
       </c>
-      <c r="K3" s="14">
+      <c r="K3" s="13">
         <v>373.39263617699999</v>
       </c>
-      <c r="L3" s="14">
+      <c r="L3" s="13">
         <v>21921.630606364</v>
       </c>
-      <c r="M3" s="12"/>
-      <c r="P3" s="13" t="s">
+      <c r="M3" s="11"/>
+      <c r="P3" s="12" t="s">
         <v>1</v>
       </c>
       <c r="Q3" s="2">
         <v>0.13488447000000001</v>
       </c>
-      <c r="R3" s="14">
+      <c r="R3" s="13">
         <v>4.2943993310000002</v>
       </c>
-      <c r="S3" s="14">
+      <c r="S3" s="13">
         <v>0.93953542700000003</v>
       </c>
-      <c r="T3" s="14">
+      <c r="T3" s="13">
         <v>548.46357154500004</v>
       </c>
-      <c r="U3" s="12"/>
-      <c r="W3" s="13"/>
+      <c r="U3" s="11"/>
+      <c r="W3" s="12"/>
       <c r="X3" s="2"/>
-      <c r="Y3" s="14"/>
-      <c r="Z3" s="14"/>
-      <c r="AA3" s="14"/>
-      <c r="AE3" s="13"/>
-      <c r="AF3" s="14"/>
-      <c r="AG3" s="14"/>
-      <c r="AH3" s="14"/>
-      <c r="AI3" s="14"/>
+      <c r="Y3" s="13"/>
+      <c r="Z3" s="13"/>
+      <c r="AA3" s="13"/>
+      <c r="AE3" s="12"/>
+      <c r="AF3" s="13"/>
+      <c r="AG3" s="13"/>
+      <c r="AH3" s="13"/>
+      <c r="AI3" s="13"/>
     </row>
-    <row r="4" spans="1:35" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="13" t="s">
+    <row r="4" spans="1:35" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="2">
         <v>0.13488447000000001</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="13">
         <v>4.2943993310000002</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="13">
         <v>0.93953542700000003</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="13">
         <v>548.46357154500004</v>
       </c>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13" t="s">
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12" t="s">
         <v>10</v>
       </c>
       <c r="I4" s="2">
         <v>1.972651181</v>
       </c>
-      <c r="J4" s="14">
+      <c r="J4" s="13">
         <v>313.982392296</v>
       </c>
-      <c r="K4" s="14">
+      <c r="K4" s="13">
         <v>48.180669002999998</v>
       </c>
-      <c r="L4" s="14">
+      <c r="L4" s="13">
         <v>1852.3712701490001</v>
       </c>
-      <c r="M4" s="12"/>
-      <c r="P4" s="13" t="s">
+      <c r="M4" s="11"/>
+      <c r="P4" s="12" t="s">
         <v>13</v>
       </c>
       <c r="Q4" s="2">
         <v>0.27790932299999999</v>
       </c>
-      <c r="R4" s="14">
+      <c r="R4" s="13">
         <v>3.9887402600000001</v>
       </c>
-      <c r="S4" s="14">
+      <c r="S4" s="13">
         <v>0.822302694</v>
       </c>
-      <c r="T4" s="14">
+      <c r="T4" s="13">
         <v>332.62832197099999</v>
       </c>
-      <c r="U4" s="12"/>
-      <c r="W4" s="13"/>
+      <c r="U4" s="11"/>
+      <c r="W4" s="12"/>
       <c r="X4" s="2"/>
-      <c r="Y4" s="14"/>
-      <c r="Z4" s="14"/>
-      <c r="AA4" s="14"/>
-      <c r="AE4" s="13"/>
+      <c r="Y4" s="13"/>
+      <c r="Z4" s="13"/>
+      <c r="AA4" s="13"/>
+      <c r="AE4" s="12"/>
       <c r="AF4" s="2"/>
-      <c r="AG4" s="14"/>
-      <c r="AH4" s="14"/>
-      <c r="AI4" s="14"/>
+      <c r="AG4" s="13"/>
+      <c r="AH4" s="13"/>
+      <c r="AI4" s="13"/>
     </row>
-    <row r="5" spans="1:35" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="13" t="s">
+    <row r="5" spans="1:35" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="12" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="2">
         <v>0.27790932299999999</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="13">
         <v>3.9887402600000001</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="13">
         <v>0.822302694</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="13">
         <v>332.62832197099999</v>
       </c>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
       <c r="H5" t="s">
         <v>3</v>
       </c>
       <c r="I5" s="2">
         <v>17.861827659999999</v>
       </c>
-      <c r="J5" s="14">
+      <c r="J5" s="13">
         <v>169.84754292100001</v>
       </c>
-      <c r="K5" s="14">
+      <c r="K5" s="13">
         <v>50.289588531</v>
       </c>
-      <c r="L5" s="14">
+      <c r="L5" s="13">
         <v>6902.0390906000002</v>
       </c>
-      <c r="M5" s="12"/>
-      <c r="P5" s="13" t="s">
+      <c r="M5" s="11"/>
+      <c r="P5" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="Q5" s="14">
+      <c r="Q5" s="13">
         <v>2.229436E-3</v>
       </c>
-      <c r="R5" s="14">
+      <c r="R5" s="13">
         <v>0.112715594</v>
       </c>
-      <c r="S5" s="14">
+      <c r="S5" s="13">
         <v>4.2268885999999999E-2</v>
       </c>
-      <c r="T5" s="14">
+      <c r="T5" s="13">
         <v>0.49361032100000002</v>
       </c>
-      <c r="U5" s="12"/>
+      <c r="U5" s="11"/>
     </row>
-    <row r="6" spans="1:35" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="13" t="s">
+    <row r="6" spans="1:35" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="13">
         <v>2.229436E-3</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="13">
         <v>0.112715594</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="13">
         <v>4.2268885999999999E-2</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="13">
         <v>0.49361032100000002</v>
       </c>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="M6" s="12"/>
-      <c r="P6" s="13" t="s">
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="M6" s="11"/>
+      <c r="P6" s="12" t="s">
         <v>4</v>
       </c>
       <c r="Q6" s="2">
         <v>1.2013921E-2</v>
       </c>
-      <c r="R6" s="14">
+      <c r="R6" s="13">
         <v>0.561793824</v>
       </c>
-      <c r="S6" s="14">
+      <c r="S6" s="13">
         <v>4.7026712999999998E-2</v>
       </c>
-      <c r="T6" s="14">
+      <c r="T6" s="13">
         <v>2.0653435729999998</v>
       </c>
-      <c r="U6" s="12"/>
+      <c r="U6" s="11"/>
     </row>
-    <row r="7" spans="1:35" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="13" t="s">
+    <row r="7" spans="1:35" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="12" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="2">
         <v>1.972651181</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="13">
         <v>313.982392296</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="13">
         <v>48.180669002999998</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="13">
         <v>1852.3712701490001</v>
       </c>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="M7" s="12"/>
-      <c r="U7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="M7" s="11"/>
+      <c r="U7" s="11"/>
     </row>
-    <row r="8" spans="1:35" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="13" t="s">
+    <row r="8" spans="1:35" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="12" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="2">
         <v>1.2013921E-2</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="13">
         <v>0.561793824</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="13">
         <v>4.7026712999999998E-2</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8" s="13">
         <v>2.0653435729999998</v>
       </c>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="M8" s="12"/>
-      <c r="U8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="M8" s="11"/>
+      <c r="U8" s="11"/>
     </row>
-    <row r="9" spans="1:35" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="13" t="s">
+    <row r="9" spans="1:35" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="12" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="2">
         <v>9.3679977999999997E-2</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="13">
         <v>12.692892822999999</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="13">
         <v>7.5040410580000003</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="13">
         <v>169.400587519</v>
       </c>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="M9" s="12"/>
-      <c r="U9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="M9" s="11"/>
+      <c r="U9" s="11"/>
     </row>
-    <row r="10" spans="1:35" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:35" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>3</v>
       </c>
       <c r="B10" s="2">
         <v>17.861827659999999</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="13">
         <v>169.84754292100001</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="13">
         <v>50.289588531</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E10" s="13">
         <v>6902.0390906000002</v>
       </c>
-      <c r="F10" s="13"/>
+      <c r="F10" s="12"/>
       <c r="G10"/>
       <c r="H10"/>
       <c r="I10"/>
       <c r="J10"/>
       <c r="K10"/>
       <c r="L10"/>
-      <c r="M10" s="12"/>
-      <c r="U10" s="12"/>
+      <c r="M10" s="11"/>
+      <c r="U10" s="11"/>
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.15">
       <c r="B14" s="2"/>
@@ -18778,13 +18903,13 @@
     </row>
     <row r="30" spans="1:35" x14ac:dyDescent="0.15">
       <c r="B30" s="2"/>
-      <c r="H30" s="18" t="s">
+      <c r="H30" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="I30" s="18"/>
-      <c r="J30" s="18"/>
-      <c r="K30" s="18"/>
-      <c r="L30" s="18"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="17"/>
+      <c r="K30" s="17"/>
+      <c r="L30" s="17"/>
     </row>
     <row r="31" spans="1:35" x14ac:dyDescent="0.15">
       <c r="I31" t="s">
@@ -18799,45 +18924,45 @@
       <c r="L31" t="s">
         <v>30</v>
       </c>
-      <c r="P31" s="18" t="s">
+      <c r="P31" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="Q31" s="18"/>
-      <c r="R31" s="18"/>
-      <c r="S31" s="18"/>
-      <c r="T31" s="18"/>
-      <c r="W31" s="18"/>
-      <c r="X31" s="18"/>
-      <c r="Y31" s="18"/>
-      <c r="Z31" s="18"/>
-      <c r="AA31" s="18"/>
-      <c r="AE31" s="18"/>
-      <c r="AF31" s="18"/>
-      <c r="AG31" s="18"/>
-      <c r="AH31" s="18"/>
-      <c r="AI31" s="18"/>
+      <c r="Q31" s="17"/>
+      <c r="R31" s="17"/>
+      <c r="S31" s="17"/>
+      <c r="T31" s="17"/>
+      <c r="W31" s="17"/>
+      <c r="X31" s="17"/>
+      <c r="Y31" s="17"/>
+      <c r="Z31" s="17"/>
+      <c r="AA31" s="17"/>
+      <c r="AE31" s="17"/>
+      <c r="AF31" s="17"/>
+      <c r="AG31" s="17"/>
+      <c r="AH31" s="17"/>
+      <c r="AI31" s="17"/>
     </row>
     <row r="32" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A32" s="18" t="s">
+      <c r="A32" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="H32" s="13" t="s">
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="H32" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="I32" s="14">
+      <c r="I32" s="13">
         <v>0.63255208333333302</v>
       </c>
-      <c r="J32" s="14">
+      <c r="J32" s="13">
         <v>0.69270833333333304</v>
       </c>
-      <c r="K32" s="14">
+      <c r="K32" s="13">
         <v>0.72916666666666596</v>
       </c>
-      <c r="L32" s="14">
+      <c r="L32" s="13">
         <v>0.63519999999999999</v>
       </c>
       <c r="Q32" t="s">
@@ -18866,233 +18991,233 @@
       <c r="E33" t="s">
         <v>30</v>
       </c>
-      <c r="H33" s="13" t="s">
+      <c r="H33" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="I33" s="14">
+      <c r="I33" s="13">
         <v>0.69605263157894703</v>
       </c>
-      <c r="J33" s="14">
+      <c r="J33" s="13">
         <v>0.60394736842105201</v>
       </c>
-      <c r="K33" s="14">
+      <c r="K33" s="13">
         <v>0.63289473684210495</v>
       </c>
-      <c r="L33" s="14">
+      <c r="L33" s="13">
         <v>0.51449999999999996</v>
       </c>
-      <c r="P33" s="13" t="s">
+      <c r="P33" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="Q33" s="14">
+      <c r="Q33" s="13">
         <v>1</v>
       </c>
-      <c r="R33" s="14">
+      <c r="R33" s="13">
         <v>0.92857142857142805</v>
       </c>
-      <c r="S33" s="14">
+      <c r="S33" s="13">
         <v>1</v>
       </c>
-      <c r="T33" s="14">
+      <c r="T33" s="13">
         <v>0.89290000000000003</v>
       </c>
-      <c r="W33" s="13"/>
-      <c r="X33" s="14"/>
-      <c r="Y33" s="14"/>
-      <c r="Z33" s="14"/>
-      <c r="AA33" s="14"/>
-      <c r="AE33" s="13"/>
-      <c r="AF33" s="14"/>
-      <c r="AG33" s="14"/>
-      <c r="AH33" s="14"/>
-      <c r="AI33" s="14"/>
+      <c r="W33" s="12"/>
+      <c r="X33" s="13"/>
+      <c r="Y33" s="13"/>
+      <c r="Z33" s="13"/>
+      <c r="AA33" s="13"/>
+      <c r="AE33" s="12"/>
+      <c r="AF33" s="13"/>
+      <c r="AG33" s="13"/>
+      <c r="AH33" s="13"/>
+      <c r="AI33" s="13"/>
     </row>
     <row r="34" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A34" s="13" t="s">
+      <c r="A34" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B34" s="14">
+      <c r="B34" s="13">
         <v>0.63255208333333302</v>
       </c>
-      <c r="C34" s="14">
+      <c r="C34" s="13">
         <v>0.69270833333333304</v>
       </c>
-      <c r="D34" s="14">
+      <c r="D34" s="13">
         <v>0.72916666666666596</v>
       </c>
-      <c r="E34" s="14">
+      <c r="E34" s="13">
         <v>0.63519999999999999</v>
       </c>
       <c r="H34" t="s">
         <v>3</v>
       </c>
-      <c r="I34" s="14">
+      <c r="I34" s="13">
         <v>1</v>
       </c>
-      <c r="J34" s="14">
+      <c r="J34" s="13">
         <v>1</v>
       </c>
-      <c r="K34" s="14">
+      <c r="K34" s="13">
         <v>0.98</v>
       </c>
-      <c r="L34" s="14">
+      <c r="L34" s="13">
         <v>0.98</v>
       </c>
-      <c r="P34" s="13" t="s">
+      <c r="P34" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="Q34" s="14">
+      <c r="Q34" s="13">
         <v>0.88235294117647001</v>
       </c>
-      <c r="R34" s="14">
+      <c r="R34" s="13">
         <v>0.61111111111111105</v>
       </c>
-      <c r="S34" s="14">
+      <c r="S34" s="13">
         <v>0.87581699346405195</v>
       </c>
-      <c r="T34" s="14">
+      <c r="T34" s="13">
         <v>0.83009999999999995</v>
       </c>
-      <c r="W34" s="13"/>
-      <c r="X34" s="14"/>
-      <c r="Y34" s="14"/>
-      <c r="Z34" s="14"/>
-      <c r="AA34" s="14"/>
-      <c r="AE34" s="13"/>
-      <c r="AF34" s="14"/>
-      <c r="AG34" s="14"/>
-      <c r="AH34" s="14"/>
-      <c r="AI34" s="14"/>
+      <c r="W34" s="12"/>
+      <c r="X34" s="13"/>
+      <c r="Y34" s="13"/>
+      <c r="Z34" s="13"/>
+      <c r="AA34" s="13"/>
+      <c r="AE34" s="12"/>
+      <c r="AF34" s="13"/>
+      <c r="AG34" s="13"/>
+      <c r="AH34" s="13"/>
+      <c r="AI34" s="13"/>
     </row>
     <row r="35" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A35" s="13" t="s">
+      <c r="A35" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="14">
+      <c r="B35" s="13">
         <v>1</v>
       </c>
-      <c r="C35" s="14">
+      <c r="C35" s="13">
         <v>0.92857142857142805</v>
       </c>
-      <c r="D35" s="14">
+      <c r="D35" s="13">
         <v>1</v>
       </c>
-      <c r="E35" s="14">
+      <c r="E35" s="13">
         <v>0.89290000000000003</v>
       </c>
-      <c r="P35" s="13" t="s">
+      <c r="P35" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="Q35" s="14">
+      <c r="Q35" s="13">
         <v>0.944606413994169</v>
       </c>
-      <c r="R35" s="14">
+      <c r="R35" s="13">
         <v>0.93294460641399402</v>
       </c>
-      <c r="S35" s="14">
+      <c r="S35" s="13">
         <v>0.95918367346938704</v>
       </c>
-      <c r="T35" s="14">
+      <c r="T35" s="13">
         <v>0.92030000000000001</v>
       </c>
     </row>
     <row r="36" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A36" s="13" t="s">
+      <c r="A36" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B36" s="14">
+      <c r="B36" s="13">
         <v>0.88235294117647001</v>
       </c>
-      <c r="C36" s="14">
+      <c r="C36" s="13">
         <v>0.61111111111111105</v>
       </c>
-      <c r="D36" s="14">
+      <c r="D36" s="13">
         <v>0.87581699346405195</v>
       </c>
-      <c r="E36" s="14">
+      <c r="E36" s="13">
         <v>0.83009999999999995</v>
       </c>
-      <c r="P36" s="13" t="s">
+      <c r="P36" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="Q36" s="14">
+      <c r="Q36" s="13">
         <v>0.88418530351437696</v>
       </c>
-      <c r="R36" s="14">
+      <c r="R36" s="13">
         <v>0.90175718849840203</v>
       </c>
-      <c r="S36" s="14">
+      <c r="S36" s="13">
         <v>0.90734824281150095</v>
       </c>
-      <c r="T36" s="14">
+      <c r="T36" s="13">
         <v>0.86980000000000002</v>
       </c>
     </row>
     <row r="37" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A37" s="13" t="s">
+      <c r="A37" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B37" s="14">
+      <c r="B37" s="13">
         <v>0.944606413994169</v>
       </c>
-      <c r="C37" s="14">
+      <c r="C37" s="13">
         <v>0.93294460641399402</v>
       </c>
-      <c r="D37" s="14">
+      <c r="D37" s="13">
         <v>0.95918367346938704</v>
       </c>
-      <c r="E37" s="14">
+      <c r="E37" s="13">
         <v>0.92030000000000001</v>
       </c>
     </row>
     <row r="38" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A38" s="13" t="s">
+      <c r="A38" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B38" s="14">
+      <c r="B38" s="13">
         <v>0.69605263157894703</v>
       </c>
-      <c r="C38" s="14">
+      <c r="C38" s="13">
         <v>0.60394736842105201</v>
       </c>
-      <c r="D38" s="14">
+      <c r="D38" s="13">
         <v>0.63289473684210495</v>
       </c>
-      <c r="E38" s="14">
+      <c r="E38" s="13">
         <v>0.51449999999999996</v>
       </c>
     </row>
     <row r="39" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A39" s="13" t="s">
+      <c r="A39" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B39" s="14">
+      <c r="B39" s="13">
         <v>0.88418530351437696</v>
       </c>
-      <c r="C39" s="14">
+      <c r="C39" s="13">
         <v>0.90175718849840203</v>
       </c>
-      <c r="D39" s="14">
+      <c r="D39" s="13">
         <v>0.90734824281150095</v>
       </c>
-      <c r="E39" s="14">
+      <c r="E39" s="13">
         <v>0.86980000000000002</v>
       </c>
     </row>
     <row r="40" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A40" s="13" t="s">
+      <c r="A40" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B40" s="14">
+      <c r="B40" s="13">
         <v>0.93333333333333302</v>
       </c>
-      <c r="C40" s="14">
+      <c r="C40" s="13">
         <v>0.97</v>
       </c>
-      <c r="D40" s="14">
+      <c r="D40" s="13">
         <v>0.99666666666666603</v>
       </c>
-      <c r="E40" s="14">
+      <c r="E40" s="13">
         <v>0.92</v>
       </c>
     </row>
@@ -19100,16 +19225,16 @@
       <c r="A41" t="s">
         <v>3</v>
       </c>
-      <c r="B41" s="14">
+      <c r="B41" s="13">
         <v>1</v>
       </c>
-      <c r="C41" s="14">
+      <c r="C41" s="13">
         <v>1</v>
       </c>
-      <c r="D41" s="14">
+      <c r="D41" s="13">
         <v>0.98</v>
       </c>
-      <c r="E41" s="14">
+      <c r="E41" s="13">
         <v>0.98</v>
       </c>
     </row>
@@ -19170,7 +19295,7 @@
       <c r="A2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="16">
+      <c r="B2" s="15">
         <f>D2-C2</f>
         <v>-1.0499999999999954E-2</v>
       </c>
@@ -19188,7 +19313,7 @@
       <c r="A3" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="16">
+      <c r="B3" s="15">
         <f t="shared" ref="B3:B46" si="0">D3-C3</f>
         <v>-0.16670000000000007</v>
       </c>
@@ -19206,7 +19331,7 @@
       <c r="A4" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="16">
+      <c r="B4" s="15">
         <f t="shared" si="0"/>
         <v>-7.9000000000000181E-3</v>
       </c>
@@ -19224,7 +19349,7 @@
       <c r="A5" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="16">
+      <c r="B5" s="15">
         <f t="shared" si="0"/>
         <v>-1.5199999999999991E-2</v>
       </c>
@@ -19242,7 +19367,7 @@
       <c r="A6" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="16">
+      <c r="B6" s="15">
         <f t="shared" si="0"/>
         <v>1.6199999999999992E-2</v>
       </c>
@@ -19260,7 +19385,7 @@
       <c r="A7" t="s">
         <v>65</v>
       </c>
-      <c r="B7" s="16">
+      <c r="B7" s="15">
         <f t="shared" si="0"/>
         <v>-3.5699999999999954E-2</v>
       </c>
@@ -19278,7 +19403,7 @@
       <c r="A8" t="s">
         <v>64</v>
       </c>
-      <c r="B8" s="16">
+      <c r="B8" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -19296,7 +19421,7 @@
       <c r="A9" t="s">
         <v>63</v>
       </c>
-      <c r="B9" s="16">
+      <c r="B9" s="15">
         <f t="shared" si="0"/>
         <v>-7.6000000000000512E-3</v>
       </c>
@@ -19314,7 +19439,7 @@
       <c r="A10" t="s">
         <v>62</v>
       </c>
-      <c r="B10" s="16">
+      <c r="B10" s="15">
         <f t="shared" si="0"/>
         <v>-4.9000000000000155E-3</v>
       </c>
@@ -19332,7 +19457,7 @@
       <c r="A11" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="16">
+      <c r="B11" s="15">
         <f t="shared" si="0"/>
         <v>-0.18519999999999992</v>
       </c>
@@ -19350,7 +19475,7 @@
       <c r="A12" t="s">
         <v>61</v>
       </c>
-      <c r="B12" s="16">
+      <c r="B12" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -19368,7 +19493,7 @@
       <c r="A13" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="16">
+      <c r="B13" s="15">
         <f t="shared" si="0"/>
         <v>-4.6000000000000485E-3</v>
       </c>
@@ -19386,7 +19511,7 @@
       <c r="A14" t="s">
         <v>60</v>
       </c>
-      <c r="B14" s="16">
+      <c r="B14" s="15">
         <f t="shared" si="0"/>
         <v>-1.9199999999999995E-2</v>
       </c>
@@ -19404,7 +19529,7 @@
       <c r="A15" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="16">
+      <c r="B15" s="15">
         <f t="shared" si="0"/>
         <v>-9.0899999999999981E-2</v>
       </c>
@@ -19422,7 +19547,7 @@
       <c r="A16" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="16">
+      <c r="B16" s="15">
         <f t="shared" si="0"/>
         <v>1.9299999999999984E-2</v>
       </c>
@@ -19440,7 +19565,7 @@
       <c r="A17" t="s">
         <v>59</v>
       </c>
-      <c r="B17" s="16">
+      <c r="B17" s="15">
         <f t="shared" si="0"/>
         <v>-4.1300000000000003E-2</v>
       </c>
@@ -19458,7 +19583,7 @@
       <c r="A18" t="s">
         <v>58</v>
       </c>
-      <c r="B18" s="16">
+      <c r="B18" s="15">
         <f t="shared" si="0"/>
         <v>-5.1400000000000001E-2</v>
       </c>
@@ -19476,7 +19601,7 @@
       <c r="A19" t="s">
         <v>73</v>
       </c>
-      <c r="B19" s="16">
+      <c r="B19" s="15">
         <f t="shared" si="0"/>
         <v>-1.3299999999999979E-2</v>
       </c>
@@ -19494,7 +19619,7 @@
       <c r="A20" t="s">
         <v>57</v>
       </c>
-      <c r="B20" s="16">
+      <c r="B20" s="15">
         <f t="shared" si="0"/>
         <v>-3.1999999999999806E-3</v>
       </c>
@@ -19512,7 +19637,7 @@
       <c r="A21" t="s">
         <v>56</v>
       </c>
-      <c r="B21" s="16">
+      <c r="B21" s="15">
         <f t="shared" si="0"/>
         <v>-2.6800000000000046E-2</v>
       </c>
@@ -19530,7 +19655,7 @@
       <c r="A22" t="s">
         <v>2</v>
       </c>
-      <c r="B22" s="16">
+      <c r="B22" s="15">
         <f t="shared" si="0"/>
         <v>3.6000000000000476E-3</v>
       </c>
@@ -19548,7 +19673,7 @@
       <c r="A23" t="s">
         <v>55</v>
       </c>
-      <c r="B23" s="16">
+      <c r="B23" s="15">
         <f t="shared" si="0"/>
         <v>-4.8900000000000055E-2</v>
       </c>
@@ -19566,7 +19691,7 @@
       <c r="A24" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="16">
+      <c r="B24" s="15">
         <f t="shared" si="0"/>
         <v>2.7000000000000024E-2</v>
       </c>
@@ -19584,7 +19709,7 @@
       <c r="A25" t="s">
         <v>54</v>
       </c>
-      <c r="B25" s="16">
+      <c r="B25" s="15">
         <f t="shared" si="0"/>
         <v>3.2000000000000917E-3</v>
       </c>
@@ -19602,7 +19727,7 @@
       <c r="A26" t="s">
         <v>10</v>
       </c>
-      <c r="B26" s="16">
+      <c r="B26" s="15">
         <f t="shared" si="0"/>
         <v>-3.5599999999999965E-2</v>
       </c>
@@ -19620,7 +19745,7 @@
       <c r="A27" t="s">
         <v>4</v>
       </c>
-      <c r="B27" s="16">
+      <c r="B27" s="15">
         <f t="shared" si="0"/>
         <v>3.1099999999999905E-2</v>
       </c>
@@ -19638,7 +19763,7 @@
       <c r="A28" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="16">
+      <c r="B28" s="15">
         <f t="shared" si="0"/>
         <v>-1.9000000000000017E-2</v>
       </c>
@@ -19653,7 +19778,7 @@
       <c r="A29" t="s">
         <v>52</v>
       </c>
-      <c r="B29" s="16">
+      <c r="B29" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -19668,7 +19793,7 @@
       <c r="A30" t="s">
         <v>23</v>
       </c>
-      <c r="B30" s="16">
+      <c r="B30" s="15">
         <f t="shared" si="0"/>
         <v>3.3000000000000029E-2</v>
       </c>
@@ -19686,7 +19811,7 @@
       <c r="A31" t="s">
         <v>51</v>
       </c>
-      <c r="B31" s="16">
+      <c r="B31" s="15">
         <f t="shared" si="0"/>
         <v>-9.4799999999999995E-2</v>
       </c>
@@ -19704,7 +19829,7 @@
       <c r="A32" t="s">
         <v>81</v>
       </c>
-      <c r="B32" s="16">
+      <c r="B32" s="15">
         <f t="shared" si="0"/>
         <v>3.0999999999999917E-3</v>
       </c>
@@ -19722,7 +19847,7 @@
       <c r="A33" t="s">
         <v>50</v>
       </c>
-      <c r="B33" s="16">
+      <c r="B33" s="15">
         <f t="shared" si="0"/>
         <v>-2.8200000000000003E-2</v>
       </c>
@@ -19740,7 +19865,7 @@
       <c r="A34" t="s">
         <v>21</v>
       </c>
-      <c r="B34" s="16">
+      <c r="B34" s="15">
         <f t="shared" si="0"/>
         <v>-1.7700000000000049E-2</v>
       </c>
@@ -19758,7 +19883,7 @@
       <c r="A35" t="s">
         <v>49</v>
       </c>
-      <c r="B35" s="16">
+      <c r="B35" s="15">
         <f t="shared" si="0"/>
         <v>-2.7000000000000024E-2</v>
       </c>
@@ -19776,7 +19901,7 @@
       <c r="A36" t="s">
         <v>48</v>
       </c>
-      <c r="B36" s="16">
+      <c r="B36" s="15">
         <f t="shared" si="0"/>
         <v>-0.21329999999999993</v>
       </c>
@@ -19794,7 +19919,7 @@
       <c r="A37" t="s">
         <v>8</v>
       </c>
-      <c r="B37" s="16">
+      <c r="B37" s="15">
         <f t="shared" si="0"/>
         <v>-1.3299999999999979E-2</v>
       </c>
@@ -19812,7 +19937,7 @@
       <c r="A38" t="s">
         <v>3</v>
       </c>
-      <c r="B38" s="16">
+      <c r="B38" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -19830,7 +19955,7 @@
       <c r="A39" t="s">
         <v>6</v>
       </c>
-      <c r="B39" s="16">
+      <c r="B39" s="15">
         <f t="shared" si="0"/>
         <v>-8.80000000000003E-3</v>
       </c>
@@ -19848,7 +19973,7 @@
       <c r="A40" t="s">
         <v>47</v>
       </c>
-      <c r="B40" s="16">
+      <c r="B40" s="15">
         <f t="shared" si="0"/>
         <v>-4.7000000000000375E-3</v>
       </c>
@@ -19866,7 +19991,7 @@
       <c r="A41" t="s">
         <v>46</v>
       </c>
-      <c r="B41" s="16">
+      <c r="B41" s="15">
         <f t="shared" si="0"/>
         <v>6.4999999999999503E-3</v>
       </c>
@@ -19884,7 +20009,7 @@
       <c r="A42" t="s">
         <v>45</v>
       </c>
-      <c r="B42" s="16">
+      <c r="B42" s="15">
         <f t="shared" si="0"/>
         <v>8.0999999999999961E-3</v>
       </c>
@@ -19902,7 +20027,7 @@
       <c r="A43" t="s">
         <v>44</v>
       </c>
-      <c r="B43" s="16">
+      <c r="B43" s="15">
         <f t="shared" si="0"/>
         <v>7.4999999999999512E-3</v>
       </c>
@@ -19920,7 +20045,7 @@
       <c r="A44" t="s">
         <v>43</v>
       </c>
-      <c r="B44" s="16">
+      <c r="B44" s="15">
         <f>D44-C44</f>
         <v>-4.9999999999994493E-4</v>
       </c>
@@ -19938,7 +20063,7 @@
       <c r="A45" t="s">
         <v>42</v>
       </c>
-      <c r="B45" s="16">
+      <c r="B45" s="15">
         <f t="shared" si="0"/>
         <v>-4.830000000000001E-2</v>
       </c>
@@ -19956,7 +20081,7 @@
       <c r="A46" t="s">
         <v>41</v>
       </c>
-      <c r="B46" s="16">
+      <c r="B46" s="15">
         <f t="shared" si="0"/>
         <v>-4.6999999999999265E-3</v>
       </c>
@@ -19971,11 +20096,11 @@
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B47" s="17">
+      <c r="B47" s="16">
         <f t="shared" ref="B47" si="1">AVERAGE(B2:B46)</f>
         <v>-2.4235555555555555E-2</v>
       </c>
-      <c r="C47" s="17">
+      <c r="C47" s="16">
         <f t="shared" ref="C47:D47" si="2">AVERAGE(C2:C46)</f>
         <v>0.85460000000000014</v>
       </c>

--- a/result/results.xlsx
+++ b/result/results.xlsx
@@ -764,11 +764,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="237533168"/>
-        <c:axId val="237152408"/>
+        <c:axId val="1328336752"/>
+        <c:axId val="1328337296"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="237533168"/>
+        <c:axId val="1328336752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -808,7 +808,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="237152408"/>
+        <c:crossAx val="1328337296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -816,7 +816,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="237152408"/>
+        <c:axId val="1328337296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -865,7 +865,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="237533168"/>
+        <c:crossAx val="1328336752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1297,11 +1297,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="238234136"/>
-        <c:axId val="238232960"/>
+        <c:axId val="1396859760"/>
+        <c:axId val="1396860304"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="238234136"/>
+        <c:axId val="1396859760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1344,7 +1344,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="238232960"/>
+        <c:crossAx val="1396860304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1352,7 +1352,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="238232960"/>
+        <c:axId val="1396860304"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1464,7 +1464,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="238234136"/>
+        <c:crossAx val="1396859760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1930,11 +1930,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="236446976"/>
-        <c:axId val="236447368"/>
+        <c:axId val="1328336208"/>
+        <c:axId val="1328337840"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="236446976"/>
+        <c:axId val="1328336208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2045,12 +2045,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="236447368"/>
+        <c:crossAx val="1328337840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="236447368"/>
+        <c:axId val="1328337840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2164,7 +2164,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="236446976"/>
+        <c:crossAx val="1328336208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2641,8 +2641,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="236445408"/>
-        <c:axId val="236444232"/>
+        <c:axId val="1328335120"/>
+        <c:axId val="1328340560"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2995,11 +2995,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="236445800"/>
-        <c:axId val="236446192"/>
+        <c:axId val="1328342192"/>
+        <c:axId val="1328341104"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="236445408"/>
+        <c:axId val="1328335120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3042,7 +3042,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="236444232"/>
+        <c:crossAx val="1328340560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3050,7 +3050,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="236444232"/>
+        <c:axId val="1328340560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -3163,12 +3163,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="236445408"/>
+        <c:crossAx val="1328335120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="236446192"/>
+        <c:axId val="1328341104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3265,12 +3265,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="236445800"/>
+        <c:crossAx val="1328342192"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="236445800"/>
+        <c:axId val="1328342192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3280,7 +3280,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="236446192"/>
+        <c:crossAx val="1328341104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3799,8 +3799,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="236444624"/>
-        <c:axId val="237420264"/>
+        <c:axId val="1326678608"/>
+        <c:axId val="1326682416"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4161,11 +4161,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="237417520"/>
-        <c:axId val="237419088"/>
+        <c:axId val="1326683504"/>
+        <c:axId val="1326681872"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="236444624"/>
+        <c:axId val="1326678608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4208,7 +4208,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="237420264"/>
+        <c:crossAx val="1326682416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4216,7 +4216,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="237420264"/>
+        <c:axId val="1326682416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -4329,12 +4329,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="236444624"/>
+        <c:crossAx val="1326678608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="237419088"/>
+        <c:axId val="1326681872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4431,12 +4431,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="237417520"/>
+        <c:crossAx val="1326683504"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="237417520"/>
+        <c:axId val="1326683504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4446,7 +4446,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="237419088"/>
+        <c:crossAx val="1326681872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4965,8 +4965,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="237415560"/>
-        <c:axId val="237419872"/>
+        <c:axId val="1326677520"/>
+        <c:axId val="1326679696"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5327,11 +5327,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="237415952"/>
-        <c:axId val="237416344"/>
+        <c:axId val="1326679152"/>
+        <c:axId val="1326678064"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="237415560"/>
+        <c:axId val="1326677520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5374,7 +5374,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="237419872"/>
+        <c:crossAx val="1326679696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5382,7 +5382,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="237419872"/>
+        <c:axId val="1326679696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -5495,12 +5495,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="237415560"/>
+        <c:crossAx val="1326677520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="237416344"/>
+        <c:axId val="1326678064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5597,12 +5597,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="237415952"/>
+        <c:crossAx val="1326679152"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="237415952"/>
+        <c:axId val="1326679152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5612,7 +5612,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="237416344"/>
+        <c:crossAx val="1326678064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6127,8 +6127,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="237421048"/>
-        <c:axId val="237416736"/>
+        <c:axId val="1326681328"/>
+        <c:axId val="1397409280"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6489,11 +6489,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="237422224"/>
-        <c:axId val="237421440"/>
+        <c:axId val="1397411456"/>
+        <c:axId val="1397414176"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="237421048"/>
+        <c:axId val="1326681328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6536,7 +6536,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="237416736"/>
+        <c:crossAx val="1397409280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6544,7 +6544,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="237416736"/>
+        <c:axId val="1397409280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6655,12 +6655,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="237421048"/>
+        <c:crossAx val="1326681328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="237421440"/>
+        <c:axId val="1397414176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6757,12 +6757,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="237422224"/>
+        <c:crossAx val="1397411456"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="237422224"/>
+        <c:axId val="1397411456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6772,7 +6772,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="237421440"/>
+        <c:crossAx val="1397414176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7210,11 +7210,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="237415168"/>
-        <c:axId val="238230608"/>
+        <c:axId val="1397412544"/>
+        <c:axId val="1397410368"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="237415168"/>
+        <c:axId val="1397412544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7257,7 +7257,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="238230608"/>
+        <c:crossAx val="1397410368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7265,7 +7265,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="238230608"/>
+        <c:axId val="1397410368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -7377,7 +7377,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="237415168"/>
+        <c:crossAx val="1397412544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7788,11 +7788,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="238231392"/>
-        <c:axId val="238232568"/>
+        <c:axId val="1397408736"/>
+        <c:axId val="1397407104"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="238231392"/>
+        <c:axId val="1397408736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7835,7 +7835,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="238232568"/>
+        <c:crossAx val="1397407104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7843,7 +7843,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="238232568"/>
+        <c:axId val="1397407104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -7955,7 +7955,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="238231392"/>
+        <c:crossAx val="1397408736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8366,11 +8366,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="238232176"/>
-        <c:axId val="238230216"/>
+        <c:axId val="1397408192"/>
+        <c:axId val="1396854320"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="238232176"/>
+        <c:axId val="1397408192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8413,7 +8413,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="238230216"/>
+        <c:crossAx val="1396854320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8421,7 +8421,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="238230216"/>
+        <c:axId val="1396854320"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -8533,7 +8533,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="238232176"/>
+        <c:crossAx val="1397408192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14716,8 +14716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49:S62"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M45" sqref="M45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/result/results.xlsx
+++ b/result/results.xlsx
@@ -764,11 +764,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1328336752"/>
-        <c:axId val="1328337296"/>
+        <c:axId val="-1938525984"/>
+        <c:axId val="-1938523264"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1328336752"/>
+        <c:axId val="-1938525984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -808,7 +808,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1328337296"/>
+        <c:crossAx val="-1938523264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -816,7 +816,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1328337296"/>
+        <c:axId val="-1938523264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -865,7 +865,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1328336752"/>
+        <c:crossAx val="-1938525984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1297,11 +1297,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1396859760"/>
-        <c:axId val="1396860304"/>
+        <c:axId val="-1859777232"/>
+        <c:axId val="-1859781040"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1396859760"/>
+        <c:axId val="-1859777232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1344,7 +1344,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1396860304"/>
+        <c:crossAx val="-1859781040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1352,7 +1352,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1396860304"/>
+        <c:axId val="-1859781040"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1464,7 +1464,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1396859760"/>
+        <c:crossAx val="-1859777232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1930,11 +1930,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1328336208"/>
-        <c:axId val="1328337840"/>
+        <c:axId val="-1938518912"/>
+        <c:axId val="-1938524896"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1328336208"/>
+        <c:axId val="-1938518912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2045,12 +2045,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1328337840"/>
+        <c:crossAx val="-1938524896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1328337840"/>
+        <c:axId val="-1938524896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2164,7 +2164,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1328336208"/>
+        <c:crossAx val="-1938518912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2641,8 +2641,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1328335120"/>
-        <c:axId val="1328340560"/>
+        <c:axId val="-1938520544"/>
+        <c:axId val="-1938522720"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2995,11 +2995,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1328342192"/>
-        <c:axId val="1328341104"/>
+        <c:axId val="-1938519456"/>
+        <c:axId val="-1938522176"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1328335120"/>
+        <c:axId val="-1938520544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3042,7 +3042,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1328340560"/>
+        <c:crossAx val="-1938522720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3050,7 +3050,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1328340560"/>
+        <c:axId val="-1938522720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -3163,12 +3163,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1328335120"/>
+        <c:crossAx val="-1938520544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1328341104"/>
+        <c:axId val="-1938522176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3265,12 +3265,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1328342192"/>
+        <c:crossAx val="-1938519456"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="1328342192"/>
+        <c:axId val="-1938519456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3280,7 +3280,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1328341104"/>
+        <c:crossAx val="-1938522176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3799,8 +3799,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1326678608"/>
-        <c:axId val="1326682416"/>
+        <c:axId val="-1938520000"/>
+        <c:axId val="-1938518368"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4161,11 +4161,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1326683504"/>
-        <c:axId val="1326681872"/>
+        <c:axId val="-1938517280"/>
+        <c:axId val="-1938517824"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1326678608"/>
+        <c:axId val="-1938520000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4208,7 +4208,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1326682416"/>
+        <c:crossAx val="-1938518368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4216,7 +4216,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1326682416"/>
+        <c:axId val="-1938518368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -4329,12 +4329,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1326678608"/>
+        <c:crossAx val="-1938520000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1326681872"/>
+        <c:axId val="-1938517824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4431,12 +4431,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1326683504"/>
+        <c:crossAx val="-1938517280"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="1326683504"/>
+        <c:axId val="-1938517280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4446,7 +4446,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1326681872"/>
+        <c:crossAx val="-1938517824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4965,8 +4965,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1326677520"/>
-        <c:axId val="1326679696"/>
+        <c:axId val="-1938515648"/>
+        <c:axId val="-1938515104"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5327,11 +5327,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1326679152"/>
-        <c:axId val="1326678064"/>
+        <c:axId val="-1938514016"/>
+        <c:axId val="-1938514560"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1326677520"/>
+        <c:axId val="-1938515648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5374,7 +5374,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1326679696"/>
+        <c:crossAx val="-1938515104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5382,7 +5382,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1326679696"/>
+        <c:axId val="-1938515104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -5495,12 +5495,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1326677520"/>
+        <c:crossAx val="-1938515648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1326678064"/>
+        <c:axId val="-1938514560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5597,12 +5597,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1326679152"/>
+        <c:crossAx val="-1938514016"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="1326679152"/>
+        <c:axId val="-1938514016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5612,7 +5612,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1326678064"/>
+        <c:crossAx val="-1938514560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6127,8 +6127,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1326681328"/>
-        <c:axId val="1397409280"/>
+        <c:axId val="-1938511296"/>
+        <c:axId val="-1938510752"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6489,11 +6489,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1397411456"/>
-        <c:axId val="1397414176"/>
+        <c:axId val="-1859788656"/>
+        <c:axId val="-1859784304"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1326681328"/>
+        <c:axId val="-1938511296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6536,7 +6536,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1397409280"/>
+        <c:crossAx val="-1938510752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6544,7 +6544,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1397409280"/>
+        <c:axId val="-1938510752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6655,12 +6655,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1326681328"/>
+        <c:crossAx val="-1938511296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1397414176"/>
+        <c:axId val="-1859784304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6757,12 +6757,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1397411456"/>
+        <c:crossAx val="-1859788656"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="1397411456"/>
+        <c:axId val="-1859788656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6772,7 +6772,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1397414176"/>
+        <c:crossAx val="-1859784304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7210,11 +7210,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1397412544"/>
-        <c:axId val="1397410368"/>
+        <c:axId val="-1859776688"/>
+        <c:axId val="-1859776144"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1397412544"/>
+        <c:axId val="-1859776688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7257,7 +7257,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1397410368"/>
+        <c:crossAx val="-1859776144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7265,7 +7265,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1397410368"/>
+        <c:axId val="-1859776144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -7377,7 +7377,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1397412544"/>
+        <c:crossAx val="-1859776688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7788,11 +7788,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1397408736"/>
-        <c:axId val="1397407104"/>
+        <c:axId val="-1859782672"/>
+        <c:axId val="-1859788112"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1397408736"/>
+        <c:axId val="-1859782672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7835,7 +7835,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1397407104"/>
+        <c:crossAx val="-1859788112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7843,7 +7843,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1397407104"/>
+        <c:axId val="-1859788112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -7955,7 +7955,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1397408736"/>
+        <c:crossAx val="-1859782672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8366,11 +8366,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1397408192"/>
-        <c:axId val="1396854320"/>
+        <c:axId val="-1859781584"/>
+        <c:axId val="-1859785936"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1397408192"/>
+        <c:axId val="-1859781584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8413,7 +8413,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1396854320"/>
+        <c:crossAx val="-1859785936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8421,7 +8421,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1396854320"/>
+        <c:axId val="-1859785936"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -8533,7 +8533,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1397408192"/>
+        <c:crossAx val="-1859781584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14717,7 +14717,7 @@
   <dimension ref="A1:AE41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M45" sqref="M45"/>
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -14726,6 +14726,7 @@
     <col min="2" max="2" width="10.625" customWidth="1"/>
     <col min="4" max="4" width="7.75" customWidth="1"/>
     <col min="9" max="9" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.15">
@@ -14765,7 +14766,7 @@
         <v>0.52173913043478204</v>
       </c>
       <c r="D2" s="6">
-        <v>0.78005115089513999</v>
+        <v>0.78516624040920702</v>
       </c>
       <c r="E2" s="6">
         <v>0.73150000000000004</v>
@@ -14782,8 +14783,14 @@
       <c r="I2" s="6">
         <v>0.51600000000000001</v>
       </c>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
       <c r="T2" s="5"/>
       <c r="U2" s="5"/>
       <c r="X2" s="5"/>
@@ -14823,8 +14830,14 @@
       <c r="I3" s="6">
         <v>0.32400000000000001</v>
       </c>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
       <c r="T3" s="5"/>
       <c r="U3" s="5"/>
       <c r="X3" s="5"/>
@@ -14847,7 +14860,7 @@
         <v>0.59244791666666596</v>
       </c>
       <c r="D4" s="6">
-        <v>0.60729166666666601</v>
+        <v>0.64322916666666596</v>
       </c>
       <c r="E4" s="6">
         <v>0.65780000000000005</v>
@@ -14864,8 +14877,14 @@
       <c r="I4" s="6">
         <v>0.57199999999999995</v>
       </c>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
       <c r="T4" s="5"/>
       <c r="U4" s="5"/>
       <c r="X4" s="5"/>
@@ -14888,7 +14907,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="6">
-        <v>0.92857142857142805</v>
+        <v>1</v>
       </c>
       <c r="E5" s="6">
         <v>0.96430000000000005</v>
@@ -14905,8 +14924,14 @@
       <c r="I5" s="6">
         <v>0.76900000000000002</v>
       </c>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
       <c r="T5" s="5"/>
       <c r="U5" s="5"/>
       <c r="X5" s="5"/>
@@ -14929,7 +14954,7 @@
         <v>0.98039215686274495</v>
       </c>
       <c r="D6" s="6">
-        <v>0.91176470588235203</v>
+        <v>0.85620915032679701</v>
       </c>
       <c r="E6" s="6">
         <v>0.77880000000000005</v>
@@ -14946,8 +14971,14 @@
       <c r="I6" s="6">
         <v>0.77400000000000002</v>
       </c>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
       <c r="T6" s="5"/>
       <c r="U6" s="5"/>
       <c r="X6" s="5"/>
@@ -14970,7 +15001,7 @@
         <v>0.96015549076773499</v>
       </c>
       <c r="D7" s="6">
-        <v>0.92614188532555797</v>
+        <v>0.93974732750242895</v>
       </c>
       <c r="E7" s="6">
         <v>0.94359999999999999</v>
@@ -14987,8 +15018,14 @@
       <c r="I7" s="6">
         <v>0.92400000000000004</v>
       </c>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
       <c r="T7" s="5"/>
       <c r="U7" s="5"/>
       <c r="X7" s="5"/>
@@ -15028,8 +15065,14 @@
       <c r="I8" s="6">
         <v>0.63500000000000001</v>
       </c>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
       <c r="T8" s="5"/>
       <c r="U8" s="5"/>
       <c r="X8" s="5"/>
@@ -15052,7 +15095,7 @@
         <v>0.66447368421052599</v>
       </c>
       <c r="D9" s="6">
-        <v>0.72105263157894695</v>
+        <v>0.71184210526315705</v>
       </c>
       <c r="E9" s="6">
         <v>0.69740000000000002</v>
@@ -15069,8 +15112,14 @@
       <c r="I9" s="6">
         <v>0.52900000000000003</v>
       </c>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
       <c r="T9" s="5"/>
       <c r="U9" s="5"/>
       <c r="X9" s="5"/>
@@ -15093,7 +15142,7 @@
         <v>0.88338658146964799</v>
       </c>
       <c r="D10" s="6">
-        <v>0.899361022364217</v>
+        <v>0.89456869009584605</v>
       </c>
       <c r="E10" s="6">
         <v>0.95209999999999995</v>
@@ -15110,8 +15159,14 @@
       <c r="I10" s="6">
         <v>0.81499999999999995</v>
       </c>
-      <c r="R10" s="5"/>
-      <c r="S10" s="5"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
       <c r="T10" s="5"/>
       <c r="U10" s="5"/>
       <c r="X10" s="5"/>
@@ -15134,7 +15189,7 @@
         <v>0.93165829145728596</v>
       </c>
       <c r="D11" s="6">
-        <v>0.89547738693467305</v>
+        <v>0.95075376884422103</v>
       </c>
       <c r="E11" s="6">
         <v>0.75470000000000004</v>
@@ -15151,8 +15206,14 @@
       <c r="I11" s="6">
         <v>0.79500000000000004</v>
       </c>
-      <c r="R11" s="5"/>
-      <c r="S11" s="5"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
       <c r="T11" s="5"/>
       <c r="U11" s="5"/>
       <c r="X11" s="5"/>
@@ -15192,8 +15253,14 @@
       <c r="I12" s="6">
         <v>0.93400000000000005</v>
       </c>
-      <c r="R12" s="5"/>
-      <c r="S12" s="5"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
       <c r="T12" s="5"/>
       <c r="U12" s="5"/>
       <c r="X12" s="5"/>
@@ -15216,7 +15283,7 @@
         <v>0.99648814749780501</v>
       </c>
       <c r="D13" s="6">
-        <v>0.97190517998243997</v>
+        <v>0.98595258999122004</v>
       </c>
       <c r="E13" s="6">
         <v>0.99119999999999997</v>
@@ -15233,8 +15300,14 @@
       <c r="I13" s="6">
         <v>0.91400000000000003</v>
       </c>
-      <c r="R13" s="5"/>
-      <c r="S13" s="5"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
       <c r="T13" s="5"/>
       <c r="U13" s="5"/>
       <c r="X13" s="5"/>
@@ -15257,7 +15330,7 @@
       </c>
       <c r="D14" s="7">
         <f t="shared" si="0"/>
-        <v>0.85122303491100115</v>
+        <v>0.86171069998584471</v>
       </c>
       <c r="E14" s="7">
         <f t="shared" si="0"/>
@@ -15279,8 +15352,14 @@
         <f t="shared" si="0"/>
         <v>0.70841666666666681</v>
       </c>
-      <c r="R14" s="14"/>
-      <c r="S14" s="14"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
       <c r="T14" s="14"/>
       <c r="U14" s="14"/>
       <c r="X14" s="14"/>
@@ -15291,6 +15370,16 @@
       <c r="AC14" s="14"/>
       <c r="AD14" s="14"/>
       <c r="AE14" s="14"/>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="6"/>
+      <c r="S22" s="6"/>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.15">
       <c r="B25" s="6"/>
@@ -15385,13 +15474,13 @@
         <v>12</v>
       </c>
       <c r="B29" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C29" s="5">
         <v>7</v>
       </c>
       <c r="D29" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E29" s="5">
         <v>3</v>
@@ -15496,25 +15585,25 @@
         <v>65</v>
       </c>
       <c r="B32" s="5">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="C32" s="5">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="D32" s="5">
-        <v>6.5</v>
+        <v>1.5</v>
       </c>
       <c r="E32" s="5">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F32" s="5">
+        <v>6</v>
+      </c>
+      <c r="G32" s="5">
         <v>5</v>
       </c>
-      <c r="G32" s="5">
-        <v>4</v>
-      </c>
       <c r="H32" s="5">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="I32" s="5">
         <v>8</v>
@@ -15533,13 +15622,13 @@
         <v>13</v>
       </c>
       <c r="B33" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C33" s="5">
         <v>1</v>
       </c>
       <c r="D33" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E33" s="5">
         <v>6</v>
@@ -15548,10 +15637,10 @@
         <v>8</v>
       </c>
       <c r="G33" s="5">
+        <v>3</v>
+      </c>
+      <c r="H33" s="5">
         <v>4</v>
-      </c>
-      <c r="H33" s="5">
-        <v>5</v>
       </c>
       <c r="I33" s="5">
         <v>7</v>
@@ -15607,16 +15696,16 @@
         <v>15</v>
       </c>
       <c r="B35" s="5">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="C35" s="5">
         <v>1</v>
       </c>
       <c r="D35" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E35" s="5">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F35" s="5">
         <v>5</v>
@@ -15681,13 +15770,13 @@
         <v>4</v>
       </c>
       <c r="B37" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C37" s="5">
         <v>4</v>
       </c>
       <c r="D37" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E37" s="5">
         <v>1</v>
@@ -15721,10 +15810,10 @@
         <v>4</v>
       </c>
       <c r="C38" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D38" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E38" s="5">
         <v>8</v>
@@ -15736,7 +15825,7 @@
         <v>5</v>
       </c>
       <c r="H38" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I38" s="5">
         <v>7</v>
@@ -15803,15 +15892,15 @@
     <row r="41" spans="1:21" x14ac:dyDescent="0.15">
       <c r="B41" s="14">
         <f t="shared" ref="B41" si="1">AVERAGE(B29:B40)</f>
-        <v>2.7083333333333335</v>
+        <v>2.625</v>
       </c>
       <c r="C41" s="14">
         <f t="shared" ref="C41" si="2">AVERAGE(C29:C40)</f>
-        <v>3.0416666666666665</v>
+        <v>3.1666666666666665</v>
       </c>
       <c r="D41" s="14">
         <f t="shared" ref="D41" si="3">AVERAGE(D29:D40)</f>
-        <v>3.3333333333333335</v>
+        <v>3.0833333333333335</v>
       </c>
       <c r="E41" s="14">
         <f t="shared" ref="E41" si="4">AVERAGE(E29:E40)</f>
@@ -15819,7 +15908,7 @@
       </c>
       <c r="F41" s="14">
         <f t="shared" ref="F41" si="5">AVERAGE(F29:F40)</f>
-        <v>4.541666666666667</v>
+        <v>4.625</v>
       </c>
       <c r="G41" s="14">
         <f t="shared" ref="G41" si="6">AVERAGE(G29:G40)</f>
@@ -15827,7 +15916,7 @@
       </c>
       <c r="H41" s="14">
         <f t="shared" ref="H41" si="7">AVERAGE(H29:H40)</f>
-        <v>5.916666666666667</v>
+        <v>5.958333333333333</v>
       </c>
       <c r="I41" s="14">
         <f t="shared" ref="I41" si="8">AVERAGE(I29:I40)</f>
@@ -16514,7 +16603,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB51"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
+    <sheetView topLeftCell="A46" workbookViewId="0">
       <selection activeCell="E78" sqref="E78"/>
     </sheetView>
   </sheetViews>
@@ -18470,7 +18559,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI41"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G34" sqref="G34:L34"/>
     </sheetView>
   </sheetViews>
